--- a/RequirementsTemplateM1.xlsx
+++ b/RequirementsTemplateM1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nada.abdelfattah\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MM\Desktop\test\ashez\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11856" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Team Name</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Students</t>
+  </si>
+  <si>
+    <t>Hazem</t>
   </si>
 </sst>
 </file>
@@ -287,6 +290,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -294,10 +301,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,47 +525,47 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -576,1028 +579,1028 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
@@ -1617,20 +1620,20 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="6" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="5" max="6" width="35.5546875" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="54.85546875" customWidth="1"/>
+    <col min="8" max="8" width="54.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -1650,7 +1653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1668,7 +1671,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -1710,17 +1713,21 @@
       <c r="G4" s="11"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1730,7 +1737,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1740,7 +1747,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1750,7 +1757,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1760,7 +1767,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1770,7 +1777,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1780,7 +1787,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1790,7 +1797,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1800,7 +1807,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1810,7 +1817,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1820,7 +1827,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1830,7 +1837,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1840,7 +1847,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1850,7 +1857,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1860,7 +1867,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1870,7 +1877,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1880,7 +1887,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1890,7 +1897,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1900,7 +1907,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1910,7 +1917,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1920,7 +1927,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1930,7 +1937,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1940,7 +1947,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1950,7 +1957,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1960,7 +1967,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1970,7 +1977,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1980,7 +1987,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1990,7 +1997,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2000,7 +2007,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -2010,7 +2017,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -2020,7 +2027,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2030,7 +2037,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2040,7 +2047,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -2050,7 +2057,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2060,7 +2067,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -2070,7 +2077,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -2080,7 +2087,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -2090,7 +2097,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -2100,7 +2107,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -2110,7 +2117,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -2120,7 +2127,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2130,7 +2137,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -2140,7 +2147,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -2150,7 +2157,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -2160,7 +2167,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -2170,7 +2177,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -2180,7 +2187,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -2190,7 +2197,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -2200,7 +2207,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -2210,7 +2217,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2220,7 +2227,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -2230,7 +2237,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2240,7 +2247,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -2250,7 +2257,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2260,7 +2267,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -2270,7 +2277,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -2280,7 +2287,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -2290,7 +2297,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -2300,7 +2307,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -2310,7 +2317,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -2320,7 +2327,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -2330,7 +2337,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -2340,7 +2347,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -2350,7 +2357,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -2360,7 +2367,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -2370,7 +2377,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -2380,7 +2387,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -2390,7 +2397,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -2400,7 +2407,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -2410,7 +2417,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -2420,7 +2427,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -2430,7 +2437,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -2440,7 +2447,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -2450,7 +2457,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -2460,7 +2467,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -2470,7 +2477,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -2480,7 +2487,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -2490,7 +2497,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -2500,7 +2507,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -2510,7 +2517,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -2520,7 +2527,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -2530,7 +2537,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -2540,7 +2547,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -2550,7 +2557,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -2560,7 +2567,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="10"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -2570,7 +2577,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -2580,7 +2587,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -2590,7 +2597,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -2600,7 +2607,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -2610,7 +2617,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -2620,7 +2627,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -2630,7 +2637,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -2640,7 +2647,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -2650,7 +2657,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -2660,7 +2667,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -2670,7 +2677,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -2680,7 +2687,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -2690,7 +2697,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -2700,7 +2707,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -2710,7 +2717,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -2720,7 +2727,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -2730,7 +2737,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -2740,7 +2747,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -2750,7 +2757,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -2760,7 +2767,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -2770,7 +2777,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -2780,7 +2787,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -2790,7 +2797,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -2800,7 +2807,7 @@
       <c r="G113" s="11"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -2810,7 +2817,7 @@
       <c r="G114" s="11"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -2820,7 +2827,7 @@
       <c r="G115" s="11"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -2830,7 +2837,7 @@
       <c r="G116" s="11"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -2840,7 +2847,7 @@
       <c r="G117" s="11"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -2850,7 +2857,7 @@
       <c r="G118" s="11"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -2860,7 +2867,7 @@
       <c r="G119" s="11"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -2895,16 +2902,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="93.28515625" customWidth="1"/>
-    <col min="4" max="4" width="118.5703125" customWidth="1"/>
-    <col min="5" max="5" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="93.33203125" customWidth="1"/>
+    <col min="4" max="4" width="118.5546875" customWidth="1"/>
+    <col min="5" max="5" width="51.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -2941,7 +2948,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2968,7 +2975,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -2995,7 +3002,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3022,7 +3029,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3049,7 +3056,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3076,7 +3083,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3103,7 +3110,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3130,7 +3137,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3157,7 +3164,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -3184,7 +3191,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -3211,7 +3218,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3238,7 +3245,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3265,7 +3272,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3292,7 +3299,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3319,7 +3326,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3346,7 +3353,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3373,7 +3380,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3400,7 +3407,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3427,7 +3434,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3454,7 +3461,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3481,7 +3488,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3508,7 +3515,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3535,7 +3542,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3562,7 +3569,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3589,7 +3596,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3616,7 +3623,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3643,7 +3650,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3670,7 +3677,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3697,7 +3704,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3724,7 +3731,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3751,7 +3758,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3778,7 +3785,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3805,7 +3812,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3832,7 +3839,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3859,7 +3866,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3886,7 +3893,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3913,7 +3920,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3940,7 +3947,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3967,7 +3974,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3994,7 +4001,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4021,7 +4028,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4048,7 +4055,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4075,7 +4082,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4102,7 +4109,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4129,7 +4136,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4156,7 +4163,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4183,7 +4190,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4210,7 +4217,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4237,7 +4244,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4264,7 +4271,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4291,7 +4298,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4318,7 +4325,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4345,7 +4352,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4372,7 +4379,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4399,7 +4406,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4426,7 +4433,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4453,7 +4460,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4480,7 +4487,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4507,7 +4514,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4534,7 +4541,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4561,7 +4568,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4588,7 +4595,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4615,7 +4622,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4642,7 +4649,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4669,7 +4676,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4696,7 +4703,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4723,7 +4730,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4750,7 +4757,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4777,7 +4784,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4804,7 +4811,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4831,7 +4838,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4858,7 +4865,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4885,7 +4892,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4912,7 +4919,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4939,7 +4946,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4966,7 +4973,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4993,7 +5000,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5020,7 +5027,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5047,7 +5054,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5074,7 +5081,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5101,7 +5108,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5128,7 +5135,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5155,7 +5162,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5182,7 +5189,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5209,7 +5216,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5236,7 +5243,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5263,7 +5270,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5290,7 +5297,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5317,7 +5324,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5344,7 +5351,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5371,7 +5378,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5398,7 +5405,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5425,7 +5432,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5452,7 +5459,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5479,7 +5486,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5506,7 +5513,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5533,7 +5540,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5560,7 +5567,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5587,7 +5594,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5614,7 +5621,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5641,7 +5648,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5668,7 +5675,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5695,7 +5702,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5722,7 +5729,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -5749,7 +5756,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5776,7 +5783,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5803,7 +5810,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5830,7 +5837,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5857,7 +5864,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5884,7 +5891,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5911,7 +5918,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5938,7 +5945,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5965,7 +5972,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5992,7 +5999,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -6019,7 +6026,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -6046,7 +6053,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -6073,7 +6080,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -6100,7 +6107,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -6127,7 +6134,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -6154,7 +6161,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -6181,7 +6188,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -6208,7 +6215,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -6235,7 +6242,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -6262,7 +6269,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -6289,7 +6296,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -6316,7 +6323,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -6343,7 +6350,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -6370,7 +6377,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -6397,7 +6404,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -6424,7 +6431,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -6451,7 +6458,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -6478,7 +6485,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6505,7 +6512,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6532,7 +6539,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6559,7 +6566,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6586,7 +6593,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6613,7 +6620,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6640,7 +6647,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6667,7 +6674,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6694,7 +6701,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6721,7 +6728,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6748,7 +6755,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6775,7 +6782,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6802,7 +6809,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6829,7 +6836,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6856,7 +6863,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6883,7 +6890,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6910,7 +6917,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6937,7 +6944,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6964,7 +6971,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6991,7 +6998,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -7018,7 +7025,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -7045,7 +7052,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -7072,7 +7079,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -7099,7 +7106,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -7126,7 +7133,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -7153,7 +7160,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -7180,7 +7187,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -7207,7 +7214,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -7234,7 +7241,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -7261,7 +7268,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -7288,7 +7295,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7315,7 +7322,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7342,7 +7349,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -7369,7 +7376,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -7396,7 +7403,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -7423,7 +7430,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -7450,7 +7457,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7477,7 +7484,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7504,7 +7511,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7531,7 +7538,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7558,7 +7565,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7585,7 +7592,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7612,7 +7619,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7639,7 +7646,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7666,7 +7673,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7693,7 +7700,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7720,7 +7727,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7747,7 +7754,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7774,7 +7781,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7801,7 +7808,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7828,7 +7835,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7855,7 +7862,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7882,7 +7889,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7909,7 +7916,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7936,7 +7943,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7963,7 +7970,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7990,7 +7997,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -8017,7 +8024,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -8044,7 +8051,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -8071,7 +8078,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -8098,7 +8105,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -8125,7 +8132,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -8152,7 +8159,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -8179,7 +8186,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -8206,7 +8213,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -8233,7 +8240,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -8260,7 +8267,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -8287,7 +8294,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -8314,7 +8321,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -8341,7 +8348,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -8368,7 +8375,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -8395,7 +8402,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -8422,7 +8429,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -8449,7 +8456,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -8476,7 +8483,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -8503,7 +8510,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -8530,7 +8537,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -8557,7 +8564,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -8584,7 +8591,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -8611,7 +8618,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -8638,7 +8645,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -8665,7 +8672,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -8692,7 +8699,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -8719,7 +8726,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8746,7 +8753,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8773,7 +8780,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8800,7 +8807,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8827,7 +8834,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8854,786 +8861,786 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RequirementsTemplateM1.xlsx
+++ b/RequirementsTemplateM1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MM\Desktop\test\ashez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samalouty\source\repos\SEproject\SEproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11856" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11856"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,14 @@
     <sheet name="Non-Functional Requirements She" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Functional Requirements Sheet'!$A$1:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Functional Requirements Sheet'!$D$1:$D$120</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Team Name</t>
   </si>
@@ -65,24 +65,6 @@
     <t>So that</t>
   </si>
   <si>
-    <t>Schedule</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Create schedules for courses</t>
-  </si>
-  <si>
-    <t>Students &amp; staff can access their schedules</t>
-  </si>
-  <si>
-    <t>View my schedule</t>
-  </si>
-  <si>
-    <t>I can attend my sessions on time</t>
-  </si>
-  <si>
     <t>Measurment</t>
   </si>
   <si>
@@ -95,20 +77,86 @@
     <t>Mobile App or Website or Both</t>
   </si>
   <si>
-    <t>This is just an example. The schedule module is repsonsible for handling the personalized schedule of the course for each stakeholder.</t>
-  </si>
-  <si>
     <t>Students</t>
   </si>
   <si>
-    <t>Hazem</t>
+    <t>Habiba Hesham Elsonbaty</t>
+  </si>
+  <si>
+    <t>55-0966</t>
+  </si>
+  <si>
+    <t>T-21</t>
+  </si>
+  <si>
+    <t>Abdelrahman Hesham Elsamalouty</t>
+  </si>
+  <si>
+    <t>55-0842</t>
+  </si>
+  <si>
+    <t>Abdelrahman Ahmed Elaby</t>
+  </si>
+  <si>
+    <t>55-0990</t>
+  </si>
+  <si>
+    <t>Ehab Medhat Ehab</t>
+  </si>
+  <si>
+    <t>55-4571</t>
+  </si>
+  <si>
+    <t>Hazem Mohamed Mansour</t>
+  </si>
+  <si>
+    <t>55-1036</t>
+  </si>
+  <si>
+    <t>Zeina Mohamed Fadel</t>
+  </si>
+  <si>
+    <t>55-1095</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>client/banker/admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be able to login  </t>
+  </si>
+  <si>
+    <t>I have access to the application</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>zeina.abdeen@student.guc.edu.eg</t>
+  </si>
+  <si>
+    <t>ehab.abdelkader@student.guc.edu.eg</t>
+  </si>
+  <si>
+    <t>abdelrahman.elaby@student.guc.edu.eg</t>
+  </si>
+  <si>
+    <t>Hazem.alfedawy@student.guc.edu.eg</t>
+  </si>
+  <si>
+    <t>abdelrahman.shawky@student.guc.edu.eg</t>
+  </si>
+  <si>
+    <t>habiba.elsonbaty@student.guc.edu.eg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -198,6 +246,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -219,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -242,11 +303,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,12 +363,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -301,8 +383,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,49 +626,49 @@
   </sheetPr>
   <dimension ref="A1:D998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" customWidth="1"/>
     <col min="3" max="3" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>24</v>
+      <c r="A5" s="19" t="s">
+        <v>17</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -580,40 +685,88 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1602,13 +1755,19 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sortState ref="A7:D12">
+    <sortCondition ref="A7"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D4"/>
     <mergeCell ref="A5:D5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1619,15 +1778,15 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" customWidth="1"/>
     <col min="5" max="6" width="35.5546875" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="54.88671875" customWidth="1"/>
@@ -1666,76 +1825,55 @@
       <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>22</v>
+      <c r="G2" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>13</v>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>31</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>14</v>
+      <c r="B3" s="26">
+        <v>1</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
-        <v>15</v>
+      <c r="D3" s="27" t="s">
+        <v>32</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>16</v>
+      <c r="E3" s="14" t="s">
+        <v>33</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
-        <v>23</v>
+      <c r="F3" s="14" t="s">
+        <v>34</v>
       </c>
+      <c r="G3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10"/>
-    </row>
+      <c r="A4" s="20"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="10"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
@@ -2879,11 +3017,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G120">
+    <dataValidation type="list" allowBlank="1" sqref="D1:D4 D6:D120">
+      <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G6:G120 G3:G4">
       <formula1>"Mobile App,Online Banking Website,Both"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D1:D120">
-      <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2899,7 +3037,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2912,20 +3050,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>20</v>
+      <c r="E1" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2950,9 +3088,9 @@
     </row>
     <row r="2" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="10"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>

--- a/RequirementsTemplateM1.xlsx
+++ b/RequirementsTemplateM1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11856"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11856" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>Team Name</t>
   </si>
@@ -119,18 +119,6 @@
     <t>55-1095</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>client/banker/admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Be able to login  </t>
-  </si>
-  <si>
-    <t>I have access to the application</t>
-  </si>
-  <si>
     <t>Both</t>
   </si>
   <si>
@@ -151,12 +139,84 @@
   <si>
     <t>habiba.elsonbaty@student.guc.edu.eg</t>
   </si>
+  <si>
+    <t>donor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donor/receiver/delivery person/admin </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I should be able to sign up </t>
+  </si>
+  <si>
+    <t>so that I can create an account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I should be able to login</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> so that I have access to the system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I should be able to have a location map </t>
+  </si>
+  <si>
+    <t>so that I know the nearest blood drive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I should be able to view all available hospitals </t>
+  </si>
+  <si>
+    <t>so that I check the blood demand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I should be able to view all blood demand requests </t>
+  </si>
+  <si>
+    <t>so that I check the suitable blood type.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I should be able to view a list of blood requests sorted with urgency </t>
+  </si>
+  <si>
+    <t>so that I can donate to the highest priority first.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I should be able to view a list of all requested medication names </t>
+  </si>
+  <si>
+    <t>so that I check if the medicine I want to donate is needed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I should be able to view dr appointment requests </t>
+  </si>
+  <si>
+    <t>so that I can choose the suitable appointment according to my profession.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I should be able to schedule dr appointments with patients </t>
+  </si>
+  <si>
+    <t>so that I can choose the suitable timing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I should be able to cancel previously scheduled appointments </t>
+  </si>
+  <si>
+    <t>so that another donor could benefit the patient if I have an emergency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I should be able to view the age of the patient </t>
+  </si>
+  <si>
+    <t>so that I use the suitable equipment and treatment in the appointment.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -259,6 +319,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -334,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -372,6 +439,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,28 +464,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -626,7 +712,7 @@
   </sheetPr>
   <dimension ref="A1:D998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -637,38 +723,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -692,7 +778,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>20</v>
@@ -706,7 +792,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>20</v>
@@ -720,7 +806,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>20</v>
@@ -733,8 +819,8 @@
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>41</v>
+      <c r="C10" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
@@ -748,7 +834,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>20</v>
@@ -762,7 +848,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>20</v>
@@ -1778,18 +1864,20 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" customWidth="1"/>
-    <col min="5" max="6" width="35.5546875" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="54.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1831,118 +1919,222 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="26">
-        <v>1</v>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="33">
+        <v>2</v>
       </c>
-      <c r="C3" s="10">
-        <v>1</v>
+      <c r="D4" s="15" t="s">
+        <v>39</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>32</v>
+      <c r="E4" s="26" t="s">
+        <v>42</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>33</v>
+      <c r="F4" s="28" t="s">
+        <v>43</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>34</v>
+      <c r="G4" s="11" t="s">
+        <v>31</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>35</v>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="34">
+        <v>3</v>
       </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="23"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="32">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="33">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="34">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="C9" s="32">
+        <v>7</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="C10" s="33">
+        <v>8</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
+      <c r="C11" s="34">
+        <v>9</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
+      <c r="C12" s="32">
+        <v>10</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
+      <c r="C13" s="33">
+        <v>11</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3017,11 +3209,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="D1:D4 D6:D120">
-      <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G120">
+      <formula1>"Mobile App,Online Banking Website,Both"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G6:G120 G3:G4">
-      <formula1>"Mobile App,Online Banking Website,Both"</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="D1:D1048576">
+      <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin, donor, receiver, delivery person, Donor/receiver/delivery person/admin "</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RequirementsTemplateM1.xlsx
+++ b/RequirementsTemplateM1.xlsx
@@ -146,70 +146,70 @@
     <t xml:space="preserve">Donor/receiver/delivery person/admin </t>
   </si>
   <si>
-    <t xml:space="preserve"> I should be able to sign up </t>
+    <t>I can create an account.</t>
   </si>
   <si>
-    <t>so that I can create an account.</t>
+    <t>I have access to the system.</t>
   </si>
   <si>
-    <t xml:space="preserve"> I should be able to login</t>
+    <t>I know the nearest blood drive.</t>
   </si>
   <si>
-    <t xml:space="preserve"> so that I have access to the system.</t>
+    <t>I check the blood demand.</t>
   </si>
   <si>
-    <t xml:space="preserve"> I should be able to have a location map </t>
+    <t>I check the suitable blood type.</t>
   </si>
   <si>
-    <t>so that I know the nearest blood drive.</t>
+    <t>I can donate to the highest priority first.</t>
   </si>
   <si>
-    <t xml:space="preserve"> I should be able to view all available hospitals </t>
+    <t>I check if the medicine I want to donate is needed.</t>
   </si>
   <si>
-    <t>so that I check the blood demand.</t>
+    <t>I can choose the suitable appointment according to my profession.</t>
   </si>
   <si>
-    <t xml:space="preserve"> I should be able to view all blood demand requests </t>
+    <t>I can choose the suitable timing.</t>
   </si>
   <si>
-    <t>so that I check the suitable blood type.</t>
+    <t>Another donor could benefit the patient if I have an emergency.</t>
   </si>
   <si>
-    <t xml:space="preserve"> I should be able to view a list of blood requests sorted with urgency </t>
+    <t>I use the suitable equipment and treatment in the appointment.</t>
   </si>
   <si>
-    <t>so that I can donate to the highest priority first.</t>
+    <t>Be able to sign up.</t>
   </si>
   <si>
-    <t xml:space="preserve"> I should be able to view a list of all requested medication names </t>
+    <t>Be able to login.</t>
   </si>
   <si>
-    <t>so that I check if the medicine I want to donate is needed.</t>
+    <t>Be able to have a location map.</t>
   </si>
   <si>
-    <t xml:space="preserve"> I should be able to view dr appointment requests </t>
+    <t>Be able to view all available hospitals.</t>
   </si>
   <si>
-    <t>so that I can choose the suitable appointment according to my profession.</t>
+    <t>Be able to view all blood demand requests.</t>
   </si>
   <si>
-    <t xml:space="preserve"> I should be able to schedule dr appointments with patients </t>
+    <t>Be able to view a list of blood requests sorted with urgency.</t>
   </si>
   <si>
-    <t>so that I can choose the suitable timing.</t>
+    <t>Be able to view a list of all requested medication names.</t>
   </si>
   <si>
-    <t xml:space="preserve"> I should be able to cancel previously scheduled appointments </t>
+    <t>Be able to view dr appointment requests.</t>
   </si>
   <si>
-    <t>so that another donor could benefit the patient if I have an emergency.</t>
+    <t>Be able to schedule dr appointments with patients.</t>
   </si>
   <si>
-    <t xml:space="preserve"> I should be able to view the age of the patient </t>
+    <t>Be able to cancel previously scheduled appointments.</t>
   </si>
   <si>
-    <t>so that I use the suitable equipment and treatment in the appointment.</t>
+    <t>Be able to view the age of the patient.</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -453,6 +453,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -463,33 +475,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -723,38 +708,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1865,7 +1850,7 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1923,17 +1908,17 @@
       <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="22">
         <v>1</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>41</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>31</v>
@@ -1943,17 +1928,17 @@
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="33">
+      <c r="C4" s="23">
         <v>2</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>42</v>
+      <c r="E4" s="21" t="s">
+        <v>52</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>43</v>
+      <c r="F4" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>31</v>
@@ -1961,17 +1946,17 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="34">
+      <c r="C5" s="24">
         <v>3</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>44</v>
+      <c r="E5" s="21" t="s">
+        <v>53</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>45</v>
+      <c r="F5" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>31</v>
@@ -1980,17 +1965,17 @@
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="32">
+      <c r="C6" s="22">
         <v>4</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>46</v>
+      <c r="E6" s="21" t="s">
+        <v>54</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>47</v>
+      <c r="F6" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>31</v>
@@ -2000,17 +1985,17 @@
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="33">
+      <c r="C7" s="23">
         <v>5</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>48</v>
+      <c r="E7" s="21" t="s">
+        <v>55</v>
       </c>
-      <c r="F7" s="31" t="s">
-        <v>49</v>
+      <c r="F7" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>31</v>
@@ -2020,17 +2005,17 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="34">
+      <c r="C8" s="24">
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>50</v>
+      <c r="E8" s="21" t="s">
+        <v>56</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>51</v>
+      <c r="F8" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>31</v>
@@ -2040,17 +2025,17 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="32">
+      <c r="C9" s="22">
         <v>7</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>52</v>
+      <c r="E9" s="21" t="s">
+        <v>57</v>
       </c>
-      <c r="F9" s="31" t="s">
-        <v>53</v>
+      <c r="F9" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>31</v>
@@ -2060,17 +2045,17 @@
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="33">
+      <c r="C10" s="23">
         <v>8</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>54</v>
+      <c r="E10" s="21" t="s">
+        <v>58</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>55</v>
+      <c r="F10" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>31</v>
@@ -2080,17 +2065,17 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="34">
+      <c r="C11" s="24">
         <v>9</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="26" t="s">
-        <v>56</v>
+      <c r="E11" s="21" t="s">
+        <v>59</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>57</v>
+      <c r="F11" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>31</v>
@@ -2100,17 +2085,17 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="32">
+      <c r="C12" s="22">
         <v>10</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>58</v>
+      <c r="E12" s="21" t="s">
+        <v>60</v>
       </c>
-      <c r="F12" s="31" t="s">
-        <v>59</v>
+      <c r="F12" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>31</v>
@@ -2120,17 +2105,17 @@
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="33">
+      <c r="C13" s="23">
         <v>11</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>60</v>
+      <c r="E13" s="21" t="s">
+        <v>61</v>
       </c>
-      <c r="F13" s="31" t="s">
-        <v>61</v>
+      <c r="F13" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>31</v>

--- a/RequirementsTemplateM1.xlsx
+++ b/RequirementsTemplateM1.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Non-Functional Requirements She" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Functional Requirements Sheet'!$D$1:$D$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Functional Requirements Sheet'!$D$1:$D$123</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
   <si>
     <t>Team Name</t>
   </si>
@@ -155,16 +155,10 @@
     <t>I know the nearest blood drive.</t>
   </si>
   <si>
-    <t>I check the blood demand.</t>
-  </si>
-  <si>
     <t>I check the suitable blood type.</t>
   </si>
   <si>
     <t>I can donate to the highest priority first.</t>
-  </si>
-  <si>
-    <t>I check if the medicine I want to donate is needed.</t>
   </si>
   <si>
     <t>I can choose the suitable appointment according to my profession.</t>
@@ -185,19 +179,10 @@
     <t>Be able to login.</t>
   </si>
   <si>
-    <t>Be able to have a location map.</t>
-  </si>
-  <si>
     <t>Be able to view all available hospitals.</t>
   </si>
   <si>
-    <t>Be able to view all blood demand requests.</t>
-  </si>
-  <si>
     <t>Be able to view a list of blood requests sorted with urgency.</t>
-  </si>
-  <si>
-    <t>Be able to view a list of all requested medication names.</t>
   </si>
   <si>
     <t>Be able to view dr appointment requests.</t>
@@ -210,6 +195,42 @@
   </si>
   <si>
     <t>Be able to view the age of the patient.</t>
+  </si>
+  <si>
+    <t>Health sector donations</t>
+  </si>
+  <si>
+    <t>Be able to view all blood demand requests in a certain hospital.</t>
+  </si>
+  <si>
+    <t>Be able to have a blood drive location map.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can check information about a certain hospital. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be able to view how much of a certain medicine is needed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can know how much to buy or donate. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can check if I have the medication/supplies needed for donation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be able to filter the type of medication/supplies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can find the needed medicine/supply by name. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be able to search through all needed medicine/supply by exact name. </t>
+  </si>
+  <si>
+    <t>Be able to view a list of all requested medication/supply names.</t>
+  </si>
+  <si>
+    <t>I check if the medicine/supply I want to donate is needed.</t>
   </si>
 </sst>
 </file>
@@ -347,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -396,12 +417,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -453,9 +498,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -465,6 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,6 +518,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1847,15 +1903,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" bestFit="1" customWidth="1"/>
@@ -1904,20 +1960,20 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>1</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="31" t="s">
         <v>40</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -1926,18 +1982,18 @@
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="23">
+      <c r="A4" s="5"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="22">
         <v>2</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="11" t="s">
@@ -1946,16 +2002,20 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="24">
+      <c r="A5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="23">
         <v>3</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -1963,19 +2023,21 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="22">
+      <c r="A6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="21">
         <v>4</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>43</v>
+      <c r="E6" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>31</v>
@@ -1983,19 +2045,21 @@
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="23">
+      <c r="A7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="22">
         <v>5</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>44</v>
+      <c r="E7" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>31</v>
@@ -2003,19 +2067,21 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="24">
+      <c r="A8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="23">
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>45</v>
+      <c r="E8" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>31</v>
@@ -2023,79 +2089,81 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="22">
+      <c r="A9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="21">
         <v>7</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>46</v>
+      <c r="E9" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>68</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="23">
+    <row r="10" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="21">
         <v>8</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>47</v>
+      <c r="E10" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>63</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="24">
+    <row r="11" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="22">
         <v>9</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>48</v>
+      <c r="E11" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="22">
+    <row r="12" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="23">
         <v>10</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>49</v>
+      <c r="E12" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>31</v>
@@ -2103,19 +2171,21 @@
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="23">
+      <c r="A13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="21">
         <v>11</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>50</v>
+      <c r="E13" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>31</v>
@@ -2123,42 +2193,78 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
+      <c r="A14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="22">
+        <v>12</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
+      <c r="A15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="23">
+        <v>13</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
+      <c r="A16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="21">
+        <v>14</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
       <c r="G17" s="11"/>
       <c r="H17" s="10"/>
     </row>
@@ -3192,9 +3298,39 @@
       <c r="G120" s="11"/>
       <c r="H120" s="10"/>
     </row>
+    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="10"/>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="10"/>
+    </row>
+    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="10"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G120">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G123">
       <formula1>"Mobile App,Online Banking Website,Both"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="D1:D1048576">

--- a/RequirementsTemplateM1.xlsx
+++ b/RequirementsTemplateM1.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Non-Functional Requirements She" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Functional Requirements Sheet'!$D$1:$D$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Functional Requirements Sheet'!$D$1:$D$126</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="94">
   <si>
     <t>Team Name</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Be able to cancel previously scheduled appointments.</t>
   </si>
   <si>
-    <t>Be able to view the age of the patient.</t>
-  </si>
-  <si>
     <t>Health sector donations</t>
   </si>
   <si>
@@ -231,6 +228,84 @@
   </si>
   <si>
     <t>I check if the medicine/supply I want to donate is needed.</t>
+  </si>
+  <si>
+    <t>Be able to view the information of the patient.</t>
+  </si>
+  <si>
+    <t>receiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be able to request a medical appointment. </t>
+  </si>
+  <si>
+    <t>Be able to accept a Dr's appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can notify donors that I need a pro-bono appointment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can confirm my Dr's appointment time and location. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be able to request medications/supplies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can notify donors that I need that specific medication/supply. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be able to request a blood donation with a blood type. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can notify donors that I need a blood donation with a specific blood type. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be able to get notified that my requested blood type is available at a certain hospital. </t>
+  </si>
+  <si>
+    <t>donor/receiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can go collect my blood from the hospital. </t>
+  </si>
+  <si>
+    <t>Be able to cancel a confirmed appointment</t>
+  </si>
+  <si>
+    <t>It becomes available for other receivers in case I have an emergency</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Add blood drive locations onto the map if a new blood drive is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all logged in users can view the new blood drive locations </t>
+  </si>
+  <si>
+    <t>Remove blood drive locations if they are not in their working hours or don't serve anymore</t>
+  </si>
+  <si>
+    <t>check that donors who claim to be Doctors have legitimate credentials</t>
+  </si>
+  <si>
+    <t>People who claim to be doctors but don't have the appropriate experience don't gain access to appointments</t>
+  </si>
+  <si>
+    <t>Add the location of new Hospitals or Organizations</t>
+  </si>
+  <si>
+    <t>logged in users can find the location of new Hospitals or Organizations</t>
+  </si>
+  <si>
+    <t>Remove the location of Hospitals or Organizations that do not want to contribute anymore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logged in users don't go to Hospital or Organization locations which are no longer contributing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">logged in users don't go to blood drive locations which are no longer serving. </t>
   </si>
 </sst>
 </file>
@@ -446,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,17 +583,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -531,6 +596,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -764,38 +849,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1903,10 +1988,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1915,8 +2000,8 @@
     <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.77734375" style="38" customWidth="1"/>
     <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1932,10 +2017,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="36"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6" t="s">
         <v>9</v>
@@ -1948,10 +2033,10 @@
       <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="37" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="12" t="s">
@@ -1970,10 +2055,10 @@
       <c r="D3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="27" t="s">
         <v>40</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -1983,17 +2068,17 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="32"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="22">
         <v>2</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="27" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="11" t="s">
@@ -2003,19 +2088,19 @@
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="33"/>
+        <v>56</v>
+      </c>
+      <c r="B5" s="29"/>
       <c r="C5" s="23">
         <v>3</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="31" t="s">
+      <c r="E5" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -2024,20 +2109,20 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="34"/>
+        <v>56</v>
+      </c>
+      <c r="B6" s="30"/>
       <c r="C6" s="21">
         <v>4</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>60</v>
+      <c r="F6" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>31</v>
@@ -2046,19 +2131,19 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="32"/>
+        <v>56</v>
+      </c>
+      <c r="B7" s="28"/>
       <c r="C7" s="22">
         <v>5</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="11" t="s">
@@ -2068,19 +2153,19 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="32"/>
+        <v>56</v>
+      </c>
+      <c r="B8" s="28"/>
       <c r="C8" s="23">
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -2090,20 +2175,20 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="32"/>
+        <v>56</v>
+      </c>
+      <c r="B9" s="28"/>
       <c r="C9" s="21">
         <v>7</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>67</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>68</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>31</v>
@@ -2111,19 +2196,21 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="28"/>
       <c r="C10" s="21">
         <v>8</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="31" t="s">
+      <c r="E10" s="27" t="s">
         <v>63</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>31</v>
@@ -2131,19 +2218,21 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="28"/>
       <c r="C11" s="22">
         <v>9</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="31" t="s">
+      <c r="E11" s="27" t="s">
         <v>65</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>31</v>
@@ -2151,19 +2240,21 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="28"/>
       <c r="C12" s="23">
         <v>10</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="27" t="s">
         <v>61</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>62</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>31</v>
@@ -2172,19 +2263,19 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="32"/>
+        <v>56</v>
+      </c>
+      <c r="B13" s="28"/>
       <c r="C13" s="21">
         <v>11</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="27" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -2194,19 +2285,19 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="32"/>
+        <v>56</v>
+      </c>
+      <c r="B14" s="28"/>
       <c r="C14" s="22">
         <v>12</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="27" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="11" t="s">
@@ -2216,19 +2307,19 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="32"/>
+        <v>56</v>
+      </c>
+      <c r="B15" s="28"/>
       <c r="C15" s="23">
         <v>13</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="27" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="11" t="s">
@@ -2238,19 +2329,19 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="32"/>
+        <v>56</v>
+      </c>
+      <c r="B16" s="28"/>
       <c r="C16" s="21">
         <v>14</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="31" t="s">
+      <c r="E16" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>48</v>
       </c>
       <c r="G16" s="11" t="s">
@@ -2258,114 +2349,244 @@
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="11"/>
+    <row r="17" spans="1:8" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="23">
+        <v>15</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+    <row r="18" spans="1:8" s="25" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="21">
+        <v>16</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>80</v>
+      </c>
       <c r="G18" s="11"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
+    <row r="19" spans="1:8" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="22">
+        <v>17</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
+      <c r="A20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="23">
+        <v>18</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
+      <c r="C21" s="22">
+        <v>19</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
+      <c r="C22" s="23">
+        <v>20</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
+      <c r="C23" s="21">
+        <v>21</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
+      <c r="C24" s="21">
+        <v>22</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
+      <c r="C25" s="22">
+        <v>23</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
+      <c r="C26" s="23">
+        <v>24</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
+      <c r="C27" s="21">
+        <v>25</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2373,8 +2594,8 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
       <c r="G28" s="11"/>
       <c r="H28" s="10"/>
     </row>
@@ -2383,8 +2604,8 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
       <c r="G29" s="11"/>
       <c r="H29" s="10"/>
     </row>
@@ -2393,8 +2614,8 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="11"/>
       <c r="H30" s="10"/>
     </row>
@@ -2403,8 +2624,8 @@
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="11"/>
       <c r="H31" s="10"/>
     </row>
@@ -2413,8 +2634,8 @@
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="11"/>
       <c r="H32" s="10"/>
     </row>
@@ -2423,8 +2644,8 @@
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
       <c r="G33" s="11"/>
       <c r="H33" s="10"/>
     </row>
@@ -2433,8 +2654,8 @@
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
       <c r="G34" s="11"/>
       <c r="H34" s="10"/>
     </row>
@@ -2443,8 +2664,8 @@
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
       <c r="G35" s="11"/>
       <c r="H35" s="10"/>
     </row>
@@ -2453,8 +2674,8 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
       <c r="G36" s="11"/>
       <c r="H36" s="10"/>
     </row>
@@ -2463,8 +2684,8 @@
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
       <c r="G37" s="11"/>
       <c r="H37" s="10"/>
     </row>
@@ -2473,8 +2694,8 @@
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
       <c r="G38" s="11"/>
       <c r="H38" s="10"/>
     </row>
@@ -2483,8 +2704,8 @@
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
       <c r="G39" s="11"/>
       <c r="H39" s="10"/>
     </row>
@@ -2493,8 +2714,8 @@
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
       <c r="G40" s="11"/>
       <c r="H40" s="10"/>
     </row>
@@ -2503,8 +2724,8 @@
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
       <c r="G41" s="11"/>
       <c r="H41" s="10"/>
     </row>
@@ -2513,8 +2734,8 @@
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
       <c r="G42" s="11"/>
       <c r="H42" s="10"/>
     </row>
@@ -2523,8 +2744,8 @@
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
       <c r="G43" s="11"/>
       <c r="H43" s="10"/>
     </row>
@@ -2533,8 +2754,8 @@
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
       <c r="G44" s="11"/>
       <c r="H44" s="10"/>
     </row>
@@ -2543,8 +2764,8 @@
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
       <c r="G45" s="11"/>
       <c r="H45" s="10"/>
     </row>
@@ -2553,8 +2774,8 @@
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
       <c r="G46" s="11"/>
       <c r="H46" s="10"/>
     </row>
@@ -2563,8 +2784,8 @@
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
       <c r="G47" s="11"/>
       <c r="H47" s="10"/>
     </row>
@@ -2573,8 +2794,8 @@
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
       <c r="G48" s="11"/>
       <c r="H48" s="10"/>
     </row>
@@ -2583,8 +2804,8 @@
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
       <c r="G49" s="11"/>
       <c r="H49" s="10"/>
     </row>
@@ -2593,8 +2814,8 @@
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
       <c r="G50" s="11"/>
       <c r="H50" s="10"/>
     </row>
@@ -2603,8 +2824,8 @@
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
       <c r="G51" s="11"/>
       <c r="H51" s="10"/>
     </row>
@@ -2613,8 +2834,8 @@
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
       <c r="G52" s="11"/>
       <c r="H52" s="10"/>
     </row>
@@ -2623,8 +2844,8 @@
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
       <c r="G53" s="11"/>
       <c r="H53" s="10"/>
     </row>
@@ -2633,8 +2854,8 @@
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
       <c r="G54" s="11"/>
       <c r="H54" s="10"/>
     </row>
@@ -2643,8 +2864,8 @@
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
       <c r="G55" s="11"/>
       <c r="H55" s="10"/>
     </row>
@@ -2653,8 +2874,8 @@
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
       <c r="G56" s="11"/>
       <c r="H56" s="10"/>
     </row>
@@ -2663,8 +2884,8 @@
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
       <c r="G57" s="11"/>
       <c r="H57" s="10"/>
     </row>
@@ -2673,8 +2894,8 @@
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
       <c r="G58" s="11"/>
       <c r="H58" s="10"/>
     </row>
@@ -2683,8 +2904,8 @@
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
       <c r="G59" s="11"/>
       <c r="H59" s="10"/>
     </row>
@@ -2693,8 +2914,8 @@
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
       <c r="G60" s="11"/>
       <c r="H60" s="10"/>
     </row>
@@ -2703,8 +2924,8 @@
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
       <c r="G61" s="11"/>
       <c r="H61" s="10"/>
     </row>
@@ -2713,8 +2934,8 @@
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
       <c r="G62" s="11"/>
       <c r="H62" s="10"/>
     </row>
@@ -2723,8 +2944,8 @@
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
       <c r="G63" s="11"/>
       <c r="H63" s="10"/>
     </row>
@@ -2733,8 +2954,8 @@
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
       <c r="G64" s="11"/>
       <c r="H64" s="10"/>
     </row>
@@ -2743,8 +2964,8 @@
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
       <c r="G65" s="11"/>
       <c r="H65" s="10"/>
     </row>
@@ -2753,8 +2974,8 @@
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
       <c r="G66" s="11"/>
       <c r="H66" s="10"/>
     </row>
@@ -2763,8 +2984,8 @@
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
       <c r="G67" s="11"/>
       <c r="H67" s="10"/>
     </row>
@@ -2773,8 +2994,8 @@
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
       <c r="G68" s="11"/>
       <c r="H68" s="10"/>
     </row>
@@ -2783,8 +3004,8 @@
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
       <c r="G69" s="11"/>
       <c r="H69" s="10"/>
     </row>
@@ -2793,8 +3014,8 @@
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
       <c r="G70" s="11"/>
       <c r="H70" s="10"/>
     </row>
@@ -2803,8 +3024,8 @@
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="9"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
       <c r="G71" s="11"/>
       <c r="H71" s="10"/>
     </row>
@@ -2813,8 +3034,8 @@
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="9"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
       <c r="G72" s="11"/>
       <c r="H72" s="10"/>
     </row>
@@ -2823,8 +3044,8 @@
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="9"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
       <c r="G73" s="11"/>
       <c r="H73" s="10"/>
     </row>
@@ -2833,8 +3054,8 @@
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="9"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
       <c r="G74" s="11"/>
       <c r="H74" s="10"/>
     </row>
@@ -2843,8 +3064,8 @@
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="9"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
       <c r="G75" s="11"/>
       <c r="H75" s="10"/>
     </row>
@@ -2853,8 +3074,8 @@
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="9"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
       <c r="G76" s="11"/>
       <c r="H76" s="10"/>
     </row>
@@ -2863,8 +3084,8 @@
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="9"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
       <c r="G77" s="11"/>
       <c r="H77" s="10"/>
     </row>
@@ -2873,8 +3094,8 @@
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="9"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
       <c r="G78" s="11"/>
       <c r="H78" s="10"/>
     </row>
@@ -2883,8 +3104,8 @@
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="9"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
       <c r="G79" s="11"/>
       <c r="H79" s="10"/>
     </row>
@@ -2893,8 +3114,8 @@
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="9"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
       <c r="G80" s="11"/>
       <c r="H80" s="10"/>
     </row>
@@ -2903,8 +3124,8 @@
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="9"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
       <c r="G81" s="11"/>
       <c r="H81" s="10"/>
     </row>
@@ -2913,8 +3134,8 @@
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="9"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
       <c r="G82" s="11"/>
       <c r="H82" s="10"/>
     </row>
@@ -2923,8 +3144,8 @@
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="9"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
       <c r="G83" s="11"/>
       <c r="H83" s="10"/>
     </row>
@@ -2933,8 +3154,8 @@
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="9"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
       <c r="G84" s="11"/>
       <c r="H84" s="10"/>
     </row>
@@ -2943,8 +3164,8 @@
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="9"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
       <c r="G85" s="11"/>
       <c r="H85" s="10"/>
     </row>
@@ -2953,8 +3174,8 @@
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="9"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
       <c r="G86" s="11"/>
       <c r="H86" s="10"/>
     </row>
@@ -2963,8 +3184,8 @@
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="9"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
       <c r="G87" s="11"/>
       <c r="H87" s="10"/>
     </row>
@@ -2973,8 +3194,8 @@
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="9"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
       <c r="G88" s="11"/>
       <c r="H88" s="10"/>
     </row>
@@ -2983,8 +3204,8 @@
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
       <c r="D89" s="9"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
       <c r="G89" s="11"/>
       <c r="H89" s="10"/>
     </row>
@@ -2993,8 +3214,8 @@
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="9"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
       <c r="G90" s="11"/>
       <c r="H90" s="10"/>
     </row>
@@ -3003,8 +3224,8 @@
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="9"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
       <c r="G91" s="11"/>
       <c r="H91" s="10"/>
     </row>
@@ -3013,8 +3234,8 @@
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
       <c r="D92" s="9"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
       <c r="G92" s="11"/>
       <c r="H92" s="10"/>
     </row>
@@ -3023,8 +3244,8 @@
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
       <c r="D93" s="9"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
       <c r="G93" s="11"/>
       <c r="H93" s="10"/>
     </row>
@@ -3033,8 +3254,8 @@
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="9"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
       <c r="G94" s="11"/>
       <c r="H94" s="10"/>
     </row>
@@ -3043,8 +3264,8 @@
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="9"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
       <c r="G95" s="11"/>
       <c r="H95" s="10"/>
     </row>
@@ -3053,8 +3274,8 @@
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="9"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
       <c r="G96" s="11"/>
       <c r="H96" s="10"/>
     </row>
@@ -3063,8 +3284,8 @@
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="9"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
       <c r="G97" s="11"/>
       <c r="H97" s="10"/>
     </row>
@@ -3073,8 +3294,8 @@
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="9"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
       <c r="G98" s="11"/>
       <c r="H98" s="10"/>
     </row>
@@ -3083,8 +3304,8 @@
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="9"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
       <c r="G99" s="11"/>
       <c r="H99" s="10"/>
     </row>
@@ -3093,8 +3314,8 @@
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="9"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
       <c r="G100" s="11"/>
       <c r="H100" s="10"/>
     </row>
@@ -3103,8 +3324,8 @@
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="9"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
       <c r="G101" s="11"/>
       <c r="H101" s="10"/>
     </row>
@@ -3113,8 +3334,8 @@
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="9"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
       <c r="G102" s="11"/>
       <c r="H102" s="10"/>
     </row>
@@ -3123,8 +3344,8 @@
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="9"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
       <c r="G103" s="11"/>
       <c r="H103" s="10"/>
     </row>
@@ -3133,8 +3354,8 @@
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="9"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
       <c r="G104" s="11"/>
       <c r="H104" s="10"/>
     </row>
@@ -3143,8 +3364,8 @@
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="D105" s="9"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26"/>
       <c r="G105" s="11"/>
       <c r="H105" s="10"/>
     </row>
@@ -3153,8 +3374,8 @@
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="9"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
       <c r="G106" s="11"/>
       <c r="H106" s="10"/>
     </row>
@@ -3163,8 +3384,8 @@
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="9"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
       <c r="G107" s="11"/>
       <c r="H107" s="10"/>
     </row>
@@ -3173,8 +3394,8 @@
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="9"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26"/>
       <c r="G108" s="11"/>
       <c r="H108" s="10"/>
     </row>
@@ -3183,8 +3404,8 @@
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="D109" s="9"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
       <c r="G109" s="11"/>
       <c r="H109" s="10"/>
     </row>
@@ -3193,8 +3414,8 @@
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="9"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
       <c r="G110" s="11"/>
       <c r="H110" s="10"/>
     </row>
@@ -3203,8 +3424,8 @@
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="9"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
       <c r="G111" s="11"/>
       <c r="H111" s="10"/>
     </row>
@@ -3213,8 +3434,8 @@
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="9"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
       <c r="G112" s="11"/>
       <c r="H112" s="10"/>
     </row>
@@ -3223,8 +3444,8 @@
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="9"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26"/>
       <c r="G113" s="11"/>
       <c r="H113" s="10"/>
     </row>
@@ -3233,8 +3454,8 @@
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="9"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
       <c r="G114" s="11"/>
       <c r="H114" s="10"/>
     </row>
@@ -3243,8 +3464,8 @@
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="9"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="26"/>
       <c r="G115" s="11"/>
       <c r="H115" s="10"/>
     </row>
@@ -3253,8 +3474,8 @@
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
       <c r="D116" s="9"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="26"/>
       <c r="G116" s="11"/>
       <c r="H116" s="10"/>
     </row>
@@ -3263,8 +3484,8 @@
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
       <c r="D117" s="9"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="26"/>
       <c r="G117" s="11"/>
       <c r="H117" s="10"/>
     </row>
@@ -3273,8 +3494,8 @@
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="9"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="26"/>
       <c r="G118" s="11"/>
       <c r="H118" s="10"/>
     </row>
@@ -3283,8 +3504,8 @@
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="9"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="26"/>
       <c r="G119" s="11"/>
       <c r="H119" s="10"/>
     </row>
@@ -3293,8 +3514,8 @@
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
       <c r="D120" s="9"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="26"/>
       <c r="G120" s="11"/>
       <c r="H120" s="10"/>
     </row>
@@ -3303,8 +3524,8 @@
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="9"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="26"/>
       <c r="G121" s="11"/>
       <c r="H121" s="10"/>
     </row>
@@ -3313,8 +3534,8 @@
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="9"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="26"/>
       <c r="G122" s="11"/>
       <c r="H122" s="10"/>
     </row>
@@ -3323,18 +3544,48 @@
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
       <c r="D123" s="9"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="26"/>
       <c r="G123" s="11"/>
       <c r="H123" s="10"/>
     </row>
+    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="10"/>
+    </row>
+    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="10"/>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="10"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G123">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G126">
       <formula1>"Mobile App,Online Banking Website,Both"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="D1:D1048576">
-      <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin, donor, receiver, delivery person, Donor/receiver/delivery person/admin "</formula1>
+      <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin, donor, receiver, delivery person, Donor/receiver/delivery person/admin ,donor/receiver"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RequirementsTemplateM1.xlsx
+++ b/RequirementsTemplateM1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samalouty\source\repos\SEproject\SEproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Habiba\Documents\GitHub\ashez\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11856" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="94">
-  <si>
-    <t>Team Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -306,13 +303,100 @@
   </si>
   <si>
     <t xml:space="preserve">logged in users don't go to blood drive locations which are no longer serving. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor </t>
+  </si>
+  <si>
+    <t>School supplies donations</t>
+  </si>
+  <si>
+    <t>make a request to donate school books</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view a list of book categories and genres </t>
+  </si>
+  <si>
+    <t>I can classify the book I want to donate to a specific type</t>
+  </si>
+  <si>
+    <t>make a request to donate school supplies</t>
+  </si>
+  <si>
+    <t>I can notify interested receivers that new supplies are offered if they need it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choose the age of people of which the supplies are for </t>
+  </si>
+  <si>
+    <t>the right age group would benefit from them</t>
+  </si>
+  <si>
+    <t>describe the current condition of my supplies(used/new )</t>
+  </si>
+  <si>
+    <t>describe the current condition of my book (used/new )</t>
+  </si>
+  <si>
+    <t>I can notify interested receivers that new books are offered if they need them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schdedule tutoring sessions for people </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can choose what I am experienced at to benefit people's welfare </t>
+  </si>
+  <si>
+    <t>view a list of all requested professions and hobbies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancel a previously scheduled tutoring session </t>
+  </si>
+  <si>
+    <t>Another donor could benefit the students if I have an emergency</t>
+  </si>
+  <si>
+    <t>communicate with the tutoring students</t>
+  </si>
+  <si>
+    <t>I can assign to them tasks and homework</t>
+  </si>
+  <si>
+    <t>Students can check their progress throughout the sessions</t>
+  </si>
+  <si>
+    <t>give feedback  about students' performance through surveys</t>
+  </si>
+  <si>
+    <t>I can collect this book and benefit from it</t>
+  </si>
+  <si>
+    <t>make a request that I need school books</t>
+  </si>
+  <si>
+    <t>I can notify donors that I need school books</t>
+  </si>
+  <si>
+    <t xml:space="preserve">receivers can  choose their perefereces </t>
+  </si>
+  <si>
+    <t>Be notified that the books I requested are available</t>
+  </si>
+  <si>
+    <t>Team Name: ASHEZ</t>
+  </si>
+  <si>
+    <t>Be able to accept a tutor's session</t>
+  </si>
+  <si>
+    <t>I can confirm the session's time and location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -323,50 +407,59 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,6 +468,7 @@
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -407,6 +501,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,6 +516,21 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -521,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,7 +682,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -597,6 +706,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -607,15 +731,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -839,150 +954,152 @@
   <dimension ref="A1:D998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" customWidth="1"/>
+    <col min="1" max="1" width="35.54296875" customWidth="1"/>
+    <col min="3" max="3" width="46.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+    </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1976,7 +2093,7 @@
     <mergeCell ref="A5:D5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1990,40 +2107,40 @@
   </sheetPr>
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67.77734375" style="38" customWidth="1"/>
+    <col min="1" max="1" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.6328125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.81640625" style="32" customWidth="1"/>
     <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="36"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2031,16 +2148,16 @@
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="37" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -2049,694 +2166,874 @@
       <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>1</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>40</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="22">
+      <c r="B4" s="27"/>
+      <c r="C4" s="21">
         <v>2</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="23">
+        <v>55</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="22">
         <v>3</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="21">
+        <v>55</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="20">
         <v>4</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>59</v>
+        <v>78</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="21">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="22">
-        <v>5</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>43</v>
+      <c r="F7" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="23">
+        <v>55</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="22">
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="21">
+        <v>55</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="20">
         <v>7</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>67</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="21">
+        <v>55</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="20">
         <v>8</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="21">
+        <v>9</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="22">
-        <v>9</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>64</v>
-      </c>
       <c r="G11" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="23">
+        <v>55</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="22">
         <v>10</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>61</v>
-      </c>
       <c r="G12" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="21">
+        <v>55</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="20">
         <v>11</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="22">
+        <v>55</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="21">
         <v>12</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="23">
+        <v>55</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="22">
         <v>13</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="21">
+        <v>55</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="20">
         <v>14</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="22">
+        <v>15</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="23">
-        <v>15</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="G17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="24" customFormat="1" ht="34.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="20">
+        <v>16</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" s="25" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="21">
-        <v>16</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>80</v>
+      <c r="F18" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="22">
+        <v>55</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="21">
         <v>17</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="27" t="s">
-        <v>75</v>
-      </c>
       <c r="G19" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="23">
+        <v>55</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="22">
         <v>18</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>72</v>
+      <c r="F20" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>19</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>20</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>82</v>
-      </c>
       <c r="G22" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>21</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="F23" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>85</v>
-      </c>
       <c r="G23" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>22</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" ht="30.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="21">
+        <v>23</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="22">
-        <v>23</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="26" t="s">
+      <c r="F25" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="26" t="s">
-        <v>88</v>
-      </c>
       <c r="G25" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <v>24</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="26" t="s">
-        <v>90</v>
-      </c>
       <c r="G26" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>25</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="26" t="s">
-        <v>92</v>
-      </c>
       <c r="G27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10">
+        <v>26</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10">
+        <v>27</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10">
+        <v>28</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10">
+        <v>29</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10">
+        <v>30</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10">
         <v>31</v>
       </c>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="11"/>
+      <c r="D33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="11"/>
+      <c r="C34" s="10">
+        <v>32</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="11"/>
+      <c r="C35" s="10">
+        <v>33</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="11"/>
+      <c r="C36" s="10">
+        <v>34</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="11"/>
+      <c r="C37" s="10">
+        <v>35</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+      <c r="A38" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="11"/>
+      <c r="C38" s="10">
+        <v>36</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
+      <c r="A39" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="11"/>
+      <c r="C39" s="10">
+        <v>37</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
+      <c r="A40" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="11"/>
+      <c r="C40" s="10">
+        <v>38</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
+      <c r="A41" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="11"/>
+      <c r="C41" s="10">
+        <v>39</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
+      <c r="A42" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="11"/>
+      <c r="C42" s="10">
+        <v>40</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2744,8 +3041,8 @@
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
       <c r="G43" s="11"/>
       <c r="H43" s="10"/>
     </row>
@@ -2754,8 +3051,8 @@
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
       <c r="G44" s="11"/>
       <c r="H44" s="10"/>
     </row>
@@ -2764,8 +3061,8 @@
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
       <c r="G45" s="11"/>
       <c r="H45" s="10"/>
     </row>
@@ -2774,8 +3071,8 @@
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
       <c r="G46" s="11"/>
       <c r="H46" s="10"/>
     </row>
@@ -2784,8 +3081,8 @@
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
       <c r="G47" s="11"/>
       <c r="H47" s="10"/>
     </row>
@@ -2794,8 +3091,8 @@
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
       <c r="G48" s="11"/>
       <c r="H48" s="10"/>
     </row>
@@ -2804,8 +3101,8 @@
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
       <c r="G49" s="11"/>
       <c r="H49" s="10"/>
     </row>
@@ -2814,8 +3111,8 @@
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
       <c r="G50" s="11"/>
       <c r="H50" s="10"/>
     </row>
@@ -2824,8 +3121,8 @@
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
       <c r="G51" s="11"/>
       <c r="H51" s="10"/>
     </row>
@@ -2834,8 +3131,8 @@
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
       <c r="G52" s="11"/>
       <c r="H52" s="10"/>
     </row>
@@ -2844,8 +3141,8 @@
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
       <c r="G53" s="11"/>
       <c r="H53" s="10"/>
     </row>
@@ -2854,8 +3151,8 @@
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
       <c r="G54" s="11"/>
       <c r="H54" s="10"/>
     </row>
@@ -2864,8 +3161,8 @@
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
       <c r="G55" s="11"/>
       <c r="H55" s="10"/>
     </row>
@@ -2874,8 +3171,8 @@
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
       <c r="G56" s="11"/>
       <c r="H56" s="10"/>
     </row>
@@ -2884,8 +3181,8 @@
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
       <c r="G57" s="11"/>
       <c r="H57" s="10"/>
     </row>
@@ -2894,8 +3191,8 @@
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
       <c r="G58" s="11"/>
       <c r="H58" s="10"/>
     </row>
@@ -2904,8 +3201,8 @@
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
       <c r="G59" s="11"/>
       <c r="H59" s="10"/>
     </row>
@@ -2914,8 +3211,8 @@
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
       <c r="G60" s="11"/>
       <c r="H60" s="10"/>
     </row>
@@ -2924,8 +3221,8 @@
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
       <c r="G61" s="11"/>
       <c r="H61" s="10"/>
     </row>
@@ -2934,8 +3231,8 @@
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
       <c r="G62" s="11"/>
       <c r="H62" s="10"/>
     </row>
@@ -2944,8 +3241,8 @@
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
       <c r="G63" s="11"/>
       <c r="H63" s="10"/>
     </row>
@@ -2954,8 +3251,8 @@
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
       <c r="G64" s="11"/>
       <c r="H64" s="10"/>
     </row>
@@ -2964,8 +3261,8 @@
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
       <c r="G65" s="11"/>
       <c r="H65" s="10"/>
     </row>
@@ -2974,8 +3271,8 @@
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
       <c r="G66" s="11"/>
       <c r="H66" s="10"/>
     </row>
@@ -2984,8 +3281,8 @@
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
       <c r="G67" s="11"/>
       <c r="H67" s="10"/>
     </row>
@@ -2994,8 +3291,8 @@
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
       <c r="G68" s="11"/>
       <c r="H68" s="10"/>
     </row>
@@ -3004,8 +3301,8 @@
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
       <c r="G69" s="11"/>
       <c r="H69" s="10"/>
     </row>
@@ -3014,8 +3311,8 @@
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
       <c r="G70" s="11"/>
       <c r="H70" s="10"/>
     </row>
@@ -3024,8 +3321,8 @@
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="9"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
       <c r="G71" s="11"/>
       <c r="H71" s="10"/>
     </row>
@@ -3034,8 +3331,8 @@
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="9"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
       <c r="G72" s="11"/>
       <c r="H72" s="10"/>
     </row>
@@ -3044,8 +3341,8 @@
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="9"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
       <c r="G73" s="11"/>
       <c r="H73" s="10"/>
     </row>
@@ -3054,8 +3351,8 @@
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="9"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
       <c r="G74" s="11"/>
       <c r="H74" s="10"/>
     </row>
@@ -3064,8 +3361,8 @@
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="9"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
       <c r="G75" s="11"/>
       <c r="H75" s="10"/>
     </row>
@@ -3074,8 +3371,8 @@
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="9"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
       <c r="G76" s="11"/>
       <c r="H76" s="10"/>
     </row>
@@ -3084,8 +3381,8 @@
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="9"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
       <c r="G77" s="11"/>
       <c r="H77" s="10"/>
     </row>
@@ -3094,8 +3391,8 @@
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="9"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
       <c r="G78" s="11"/>
       <c r="H78" s="10"/>
     </row>
@@ -3104,8 +3401,8 @@
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="9"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
       <c r="G79" s="11"/>
       <c r="H79" s="10"/>
     </row>
@@ -3114,8 +3411,8 @@
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="9"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
       <c r="G80" s="11"/>
       <c r="H80" s="10"/>
     </row>
@@ -3124,8 +3421,8 @@
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="9"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
       <c r="G81" s="11"/>
       <c r="H81" s="10"/>
     </row>
@@ -3134,8 +3431,8 @@
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="9"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
       <c r="G82" s="11"/>
       <c r="H82" s="10"/>
     </row>
@@ -3144,8 +3441,8 @@
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="9"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
       <c r="G83" s="11"/>
       <c r="H83" s="10"/>
     </row>
@@ -3154,8 +3451,8 @@
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="9"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
       <c r="G84" s="11"/>
       <c r="H84" s="10"/>
     </row>
@@ -3164,8 +3461,8 @@
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="9"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
       <c r="G85" s="11"/>
       <c r="H85" s="10"/>
     </row>
@@ -3174,8 +3471,8 @@
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="9"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
       <c r="G86" s="11"/>
       <c r="H86" s="10"/>
     </row>
@@ -3184,8 +3481,8 @@
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="9"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
       <c r="G87" s="11"/>
       <c r="H87" s="10"/>
     </row>
@@ -3194,8 +3491,8 @@
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="9"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
       <c r="G88" s="11"/>
       <c r="H88" s="10"/>
     </row>
@@ -3204,8 +3501,8 @@
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
       <c r="D89" s="9"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
       <c r="G89" s="11"/>
       <c r="H89" s="10"/>
     </row>
@@ -3214,8 +3511,8 @@
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="9"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
       <c r="G90" s="11"/>
       <c r="H90" s="10"/>
     </row>
@@ -3224,8 +3521,8 @@
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="9"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
       <c r="G91" s="11"/>
       <c r="H91" s="10"/>
     </row>
@@ -3234,8 +3531,8 @@
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
       <c r="D92" s="9"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
       <c r="G92" s="11"/>
       <c r="H92" s="10"/>
     </row>
@@ -3244,8 +3541,8 @@
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
       <c r="D93" s="9"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
       <c r="G93" s="11"/>
       <c r="H93" s="10"/>
     </row>
@@ -3254,8 +3551,8 @@
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="9"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
       <c r="G94" s="11"/>
       <c r="H94" s="10"/>
     </row>
@@ -3264,8 +3561,8 @@
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="9"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
       <c r="G95" s="11"/>
       <c r="H95" s="10"/>
     </row>
@@ -3274,8 +3571,8 @@
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="9"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
       <c r="G96" s="11"/>
       <c r="H96" s="10"/>
     </row>
@@ -3284,8 +3581,8 @@
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="9"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
       <c r="G97" s="11"/>
       <c r="H97" s="10"/>
     </row>
@@ -3294,8 +3591,8 @@
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="9"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
       <c r="G98" s="11"/>
       <c r="H98" s="10"/>
     </row>
@@ -3304,8 +3601,8 @@
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="9"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
       <c r="G99" s="11"/>
       <c r="H99" s="10"/>
     </row>
@@ -3314,8 +3611,8 @@
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="9"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
       <c r="G100" s="11"/>
       <c r="H100" s="10"/>
     </row>
@@ -3324,8 +3621,8 @@
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="9"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
       <c r="G101" s="11"/>
       <c r="H101" s="10"/>
     </row>
@@ -3334,8 +3631,8 @@
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="9"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
       <c r="G102" s="11"/>
       <c r="H102" s="10"/>
     </row>
@@ -3344,8 +3641,8 @@
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="9"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
       <c r="G103" s="11"/>
       <c r="H103" s="10"/>
     </row>
@@ -3354,8 +3651,8 @@
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="9"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
       <c r="G104" s="11"/>
       <c r="H104" s="10"/>
     </row>
@@ -3364,8 +3661,8 @@
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="D105" s="9"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
       <c r="G105" s="11"/>
       <c r="H105" s="10"/>
     </row>
@@ -3374,8 +3671,8 @@
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="9"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
       <c r="G106" s="11"/>
       <c r="H106" s="10"/>
     </row>
@@ -3384,8 +3681,8 @@
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="9"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
       <c r="G107" s="11"/>
       <c r="H107" s="10"/>
     </row>
@@ -3394,8 +3691,8 @@
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="9"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
       <c r="G108" s="11"/>
       <c r="H108" s="10"/>
     </row>
@@ -3404,8 +3701,8 @@
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="D109" s="9"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
       <c r="G109" s="11"/>
       <c r="H109" s="10"/>
     </row>
@@ -3414,8 +3711,8 @@
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="9"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
       <c r="G110" s="11"/>
       <c r="H110" s="10"/>
     </row>
@@ -3424,8 +3721,8 @@
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="9"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
       <c r="G111" s="11"/>
       <c r="H111" s="10"/>
     </row>
@@ -3434,8 +3731,8 @@
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="9"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
       <c r="G112" s="11"/>
       <c r="H112" s="10"/>
     </row>
@@ -3444,8 +3741,8 @@
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="9"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
       <c r="G113" s="11"/>
       <c r="H113" s="10"/>
     </row>
@@ -3454,8 +3751,8 @@
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="9"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="26"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
       <c r="G114" s="11"/>
       <c r="H114" s="10"/>
     </row>
@@ -3464,8 +3761,8 @@
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="9"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="26"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
       <c r="G115" s="11"/>
       <c r="H115" s="10"/>
     </row>
@@ -3474,8 +3771,8 @@
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
       <c r="D116" s="9"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="26"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
       <c r="G116" s="11"/>
       <c r="H116" s="10"/>
     </row>
@@ -3484,8 +3781,8 @@
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
       <c r="D117" s="9"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="26"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
       <c r="G117" s="11"/>
       <c r="H117" s="10"/>
     </row>
@@ -3494,8 +3791,8 @@
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="9"/>
-      <c r="E118" s="26"/>
-      <c r="F118" s="26"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
       <c r="G118" s="11"/>
       <c r="H118" s="10"/>
     </row>
@@ -3504,8 +3801,8 @@
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="9"/>
-      <c r="E119" s="26"/>
-      <c r="F119" s="26"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
       <c r="G119" s="11"/>
       <c r="H119" s="10"/>
     </row>
@@ -3514,8 +3811,8 @@
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
       <c r="D120" s="9"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="26"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="25"/>
       <c r="G120" s="11"/>
       <c r="H120" s="10"/>
     </row>
@@ -3524,8 +3821,8 @@
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="9"/>
-      <c r="E121" s="26"/>
-      <c r="F121" s="26"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="25"/>
       <c r="G121" s="11"/>
       <c r="H121" s="10"/>
     </row>
@@ -3534,8 +3831,8 @@
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="9"/>
-      <c r="E122" s="26"/>
-      <c r="F122" s="26"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="25"/>
       <c r="G122" s="11"/>
       <c r="H122" s="10"/>
     </row>
@@ -3544,8 +3841,8 @@
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
       <c r="D123" s="9"/>
-      <c r="E123" s="26"/>
-      <c r="F123" s="26"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
       <c r="G123" s="11"/>
       <c r="H123" s="10"/>
     </row>
@@ -3554,8 +3851,8 @@
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="D124" s="9"/>
-      <c r="E124" s="26"/>
-      <c r="F124" s="26"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
       <c r="G124" s="11"/>
       <c r="H124" s="10"/>
     </row>
@@ -3564,8 +3861,8 @@
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
       <c r="D125" s="9"/>
-      <c r="E125" s="26"/>
-      <c r="F125" s="26"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
       <c r="G125" s="11"/>
       <c r="H125" s="10"/>
     </row>
@@ -3574,8 +3871,8 @@
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
       <c r="D126" s="9"/>
-      <c r="E126" s="26"/>
-      <c r="F126" s="26"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="25"/>
       <c r="G126" s="11"/>
       <c r="H126" s="10"/>
     </row>
@@ -3604,30 +3901,30 @@
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="93.33203125" customWidth="1"/>
-    <col min="4" max="4" width="118.5546875" customWidth="1"/>
-    <col min="5" max="5" width="51.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="93.36328125" customWidth="1"/>
+    <col min="4" max="4" width="118.54296875" customWidth="1"/>
+    <col min="5" max="5" width="51.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/RequirementsTemplateM1.xlsx
+++ b/RequirementsTemplateM1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Habiba\Documents\GitHub\ashez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\SE\ashez\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C995CF-A8D8-45E9-A2DC-6EE4094C79B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11860" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -17,14 +18,14 @@
     <sheet name="Non-Functional Requirements She" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Functional Requirements Sheet'!$D$1:$D$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Functional Requirements Sheet'!$D$1:$D$136</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="167">
   <si>
     <t>Name</t>
   </si>
@@ -149,9 +150,6 @@
     <t>I have access to the system.</t>
   </si>
   <si>
-    <t>I know the nearest blood drive.</t>
-  </si>
-  <si>
     <t>I check the suitable blood type.</t>
   </si>
   <si>
@@ -164,9 +162,6 @@
     <t>I can choose the suitable timing.</t>
   </si>
   <si>
-    <t>Another donor could benefit the patient if I have an emergency.</t>
-  </si>
-  <si>
     <t>I use the suitable equipment and treatment in the appointment.</t>
   </si>
   <si>
@@ -197,9 +192,6 @@
     <t>Be able to view all blood demand requests in a certain hospital.</t>
   </si>
   <si>
-    <t>Be able to have a blood drive location map.</t>
-  </si>
-  <si>
     <t xml:space="preserve">I can check information about a certain hospital. </t>
   </si>
   <si>
@@ -218,15 +210,6 @@
     <t xml:space="preserve">I can find the needed medicine/supply by name. </t>
   </si>
   <si>
-    <t xml:space="preserve">Be able to search through all needed medicine/supply by exact name. </t>
-  </si>
-  <si>
-    <t>Be able to view a list of all requested medication/supply names.</t>
-  </si>
-  <si>
-    <t>I check if the medicine/supply I want to donate is needed.</t>
-  </si>
-  <si>
     <t>Be able to view the information of the patient.</t>
   </si>
   <si>
@@ -245,12 +228,6 @@
     <t xml:space="preserve">I can confirm my Dr's appointment time and location. </t>
   </si>
   <si>
-    <t xml:space="preserve">Be able to request medications/supplies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I can notify donors that I need that specific medication/supply. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Be able to request a blood donation with a blood type. </t>
   </si>
   <si>
@@ -266,12 +243,6 @@
     <t xml:space="preserve">I can go collect my blood from the hospital. </t>
   </si>
   <si>
-    <t>Be able to cancel a confirmed appointment</t>
-  </si>
-  <si>
-    <t>It becomes available for other receivers in case I have an emergency</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -305,21 +276,12 @@
     <t xml:space="preserve">logged in users don't go to blood drive locations which are no longer serving. </t>
   </si>
   <si>
-    <t xml:space="preserve">donor </t>
-  </si>
-  <si>
     <t>School supplies donations</t>
   </si>
   <si>
     <t>make a request to donate school books</t>
   </si>
   <si>
-    <t xml:space="preserve">view a list of book categories and genres </t>
-  </si>
-  <si>
-    <t>I can classify the book I want to donate to a specific type</t>
-  </si>
-  <si>
     <t>make a request to donate school supplies</t>
   </si>
   <si>
@@ -338,24 +300,12 @@
     <t>describe the current condition of my book (used/new )</t>
   </si>
   <si>
-    <t>I can notify interested receivers that new books are offered if they need them</t>
-  </si>
-  <si>
     <t xml:space="preserve">schdedule tutoring sessions for people </t>
   </si>
   <si>
     <t xml:space="preserve">I can choose what I am experienced at to benefit people's welfare </t>
   </si>
   <si>
-    <t>view a list of all requested professions and hobbies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancel a previously scheduled tutoring session </t>
-  </si>
-  <si>
-    <t>Another donor could benefit the students if I have an emergency</t>
-  </si>
-  <si>
     <t>communicate with the tutoring students</t>
   </si>
   <si>
@@ -390,13 +340,199 @@
   </si>
   <si>
     <t>I can confirm the session's time and location</t>
+  </si>
+  <si>
+    <t>Be able to cancel a confirmed tutoring session</t>
+  </si>
+  <si>
+    <t>check that donors who claim to be teachers have legitimate credentials</t>
+  </si>
+  <si>
+    <t>People who claim to be teachers but don't have the appropriate experience don't gain access to tutoring sessions</t>
+  </si>
+  <si>
+    <t>Be notified that the supplies I requested are available</t>
+  </si>
+  <si>
+    <t>I can collect the supplies and benefit from it</t>
+  </si>
+  <si>
+    <t>view a list of requested books</t>
+  </si>
+  <si>
+    <t>I check if the book I want to donate is needed.</t>
+  </si>
+  <si>
+    <t>search for a specific requested book by exact name</t>
+  </si>
+  <si>
+    <t>filter the list of requested books by subject name</t>
+  </si>
+  <si>
+    <t>I can check the requested book by name</t>
+  </si>
+  <si>
+    <t>I check if the medicine I want to donate is needed.</t>
+  </si>
+  <si>
+    <t>I check if the supply I want to donate is needed.</t>
+  </si>
+  <si>
+    <t>I can notify donors that I need that specific medication.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can notify donors that I need that specific supply. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be able to request medications. </t>
+  </si>
+  <si>
+    <t>Be able to make a request to donate medication.</t>
+  </si>
+  <si>
+    <t>Be able to view a list of all requested medication names by a receiver.</t>
+  </si>
+  <si>
+    <t>I can notify interested receivers that new medication are offered if they need it</t>
+  </si>
+  <si>
+    <t>Be able to view a list of all available medications to be donated</t>
+  </si>
+  <si>
+    <t>Be able to view a list of all available medical supplies to be donated</t>
+  </si>
+  <si>
+    <t>I can check if a medication I need is available</t>
+  </si>
+  <si>
+    <t>I can check if a medical supply I need is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be able to request medical supplies. </t>
+  </si>
+  <si>
+    <t>Be able to make a request to donate medical supplies.</t>
+  </si>
+  <si>
+    <t>Be able to view a list of all requested medical supply names by a receiver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be able to search through all medicine/supply by exact name. </t>
+  </si>
+  <si>
+    <t>Be able to get notified that my requested medication/medical supply is available.</t>
+  </si>
+  <si>
+    <t>I can collect them.</t>
+  </si>
+  <si>
+    <t>I can be available at that time.</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>view a list of all requested tutors sessions</t>
+  </si>
+  <si>
+    <t>make a request that I need school supplies</t>
+  </si>
+  <si>
+    <t>make a request that I need a tutoring session</t>
+  </si>
+  <si>
+    <t>I can notify donors that I need a tutoring sessin</t>
+  </si>
+  <si>
+    <t>I can notify donors that I need school supplies</t>
+  </si>
+  <si>
+    <t>delivery person</t>
+  </si>
+  <si>
+    <t>Be able to view a list of all donations to be delivered</t>
+  </si>
+  <si>
+    <t>I can pick them up and deliver them.</t>
+  </si>
+  <si>
+    <t>assign a delivery person to every donation to be picked up based on proximity</t>
+  </si>
+  <si>
+    <t>Be able to have a location map.</t>
+  </si>
+  <si>
+    <t>I can know where each donation will be picked up and delivered to.</t>
+  </si>
+  <si>
+    <t>Be able to cancel an existing donation request</t>
+  </si>
+  <si>
+    <t>I can state that the donation is no longer available.</t>
+  </si>
+  <si>
+    <t>Be able to state that a donation is delivered</t>
+  </si>
+  <si>
+    <t>The donor and admin know that the donation has been delivered.</t>
+  </si>
+  <si>
+    <t>I can ensure efficient delivery.</t>
+  </si>
+  <si>
+    <t>I can reach him if I'm lost or if I've arrived.</t>
+  </si>
+  <si>
+    <t>Pickup/ delivery of donations</t>
+  </si>
+  <si>
+    <t>Be able to get notified that a delivery person has arrived.</t>
+  </si>
+  <si>
+    <t>I can pick the donation up from him</t>
+  </si>
+  <si>
+    <t>I can notify the second party that I'm not available at that time</t>
+  </si>
+  <si>
+    <t>Be able to view the remaining time for pickup/delivery</t>
+  </si>
+  <si>
+    <t>Be able to get notified that a delivery person will come pick up/deliver my donation</t>
+  </si>
+  <si>
+    <t>Be able to track the delivery driver</t>
+  </si>
+  <si>
+    <t>I can know where he is.</t>
+  </si>
+  <si>
+    <t>I can get a replacement.</t>
+  </si>
+  <si>
+    <t>Be able to reject delivering a donation</t>
+  </si>
+  <si>
+    <t>another driver would deliver it.</t>
+  </si>
+  <si>
+    <t>Be able to complain that I received the wrong donation</t>
+  </si>
+  <si>
+    <t>Be able to contact the receiver/donor</t>
+  </si>
+  <si>
+    <t>I know what type of vehicle to use for delivery</t>
+  </si>
+  <si>
+    <t>Be able to view details(size,type,etc) of donated item</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -532,8 +668,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,6 +693,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF3D85C6"/>
         <bgColor rgb="FF3D85C6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -631,8 +792,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,7 +804,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -672,11 +833,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -688,11 +849,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -702,7 +858,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -712,11 +867,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -724,13 +878,33 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -947,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -957,47 +1131,47 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" customWidth="1"/>
-    <col min="3" max="3" width="46.90625" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="41" t="s">
+    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1011,21 +1185,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1039,7 +1213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1053,7 +1227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1067,7 +1241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1081,7 +1255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1095,996 +1269,994 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState ref="A7:D12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:D12">
     <sortCondition ref="A7"/>
   </sortState>
   <mergeCells count="3">
@@ -2093,7 +2265,7 @@
     <mergeCell ref="A5:D5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2101,29 +2273,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.6328125" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="85.81640625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="102.42578125" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -2134,26 +2306,26 @@
         <v>6</v>
       </c>
       <c r="D1" s="6"/>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="30"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="12" t="s">
@@ -2161,8 +2333,10 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
+        <v>134</v>
+      </c>
       <c r="B3" s="18">
         <v>1</v>
       </c>
@@ -2172,10 +2346,10 @@
       <c r="D3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -2183,19 +2357,21 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="27"/>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="24"/>
       <c r="C4" s="21">
         <v>2</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="26" t="s">
+      <c r="E4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="11" t="s">
@@ -2203,1685 +2379,2072 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="22">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="39">
         <v>3</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>41</v>
+      <c r="E5" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>147</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="29"/>
+        <v>53</v>
+      </c>
+      <c r="B6" s="25"/>
       <c r="C6" s="20">
         <v>4</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="27"/>
+        <v>53</v>
+      </c>
+      <c r="B7" s="24"/>
       <c r="C7" s="21">
         <v>5</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>42</v>
+      <c r="E7" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="22">
+        <v>53</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="39">
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>43</v>
+      <c r="E8" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="27"/>
+        <v>53</v>
+      </c>
+      <c r="B9" s="24"/>
       <c r="C9" s="20">
         <v>7</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>66</v>
+      <c r="E9" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="20">
+        <v>53</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="21">
         <v>8</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>61</v>
+      <c r="E10" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="21">
+        <v>53</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="39">
         <v>9</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>63</v>
+      <c r="E11" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="22">
+        <v>53</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="20">
         <v>10</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>60</v>
+      <c r="E12" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="20">
+        <v>53</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="21">
         <v>11</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>44</v>
+      <c r="E13" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="21">
+        <v>53</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="39">
         <v>12</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>45</v>
+      <c r="E14" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="22">
+        <v>53</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="20">
         <v>13</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>46</v>
+      <c r="E15" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="20">
+        <v>53</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="21">
         <v>14</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>47</v>
+      <c r="E16" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="22">
+        <v>53</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="39">
         <v>15</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>76</v>
+        <v>37</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" s="24" customFormat="1" ht="34.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="27"/>
+        <v>53</v>
+      </c>
+      <c r="B18" s="24"/>
       <c r="C18" s="20">
         <v>16</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="27"/>
+        <v>53</v>
+      </c>
+      <c r="B19" s="24"/>
       <c r="C19" s="21">
         <v>17</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>74</v>
+        <v>37</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="22">
+        <v>53</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="39">
         <v>18</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="23" t="s">
         <v>68</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>71</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="21">
+        <v>53</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="20">
         <v>19</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>72</v>
+      <c r="D21" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="22">
+        <v>53</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="21">
         <v>20</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>81</v>
+      <c r="D22" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="20">
+        <v>53</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="39">
         <v>21</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>84</v>
+      <c r="D23" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="B24" s="24"/>
       <c r="C24" s="20">
         <v>22</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>92</v>
+      <c r="D24" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="30.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="B25" s="24"/>
       <c r="C25" s="21">
         <v>23</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>87</v>
+      <c r="D25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="22">
+        <v>53</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="39">
         <v>24</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>89</v>
+      <c r="D26" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="B27" s="24"/>
       <c r="C27" s="20">
         <v>25</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>91</v>
+        <v>62</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>94</v>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="10">
+      <c r="C28" s="21">
         <v>26</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>104</v>
+        <v>62</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>94</v>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="10">
+      <c r="C29" s="39">
         <v>27</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>97</v>
+        <v>72</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>94</v>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="10">
+      <c r="C30" s="20">
         <v>28</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>117</v>
+        <v>72</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>94</v>
+    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="10">
+      <c r="C31" s="21">
         <v>29</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>99</v>
+        <v>72</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>94</v>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="10">
+      <c r="C32" s="39">
         <v>30</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>101</v>
+        <v>72</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>94</v>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="10">
+      <c r="C33" s="20">
         <v>31</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>117</v>
+        <v>72</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>94</v>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="10">
+      <c r="C34" s="21">
         <v>32</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>45</v>
+      <c r="E34" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>94</v>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="10">
+      <c r="C35" s="39">
         <v>33</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>106</v>
+      <c r="E35" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>94</v>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B36" s="10"/>
-      <c r="C36" s="10">
+      <c r="C36" s="20">
         <v>34</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>109</v>
+      <c r="E36" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>94</v>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B37" s="10"/>
-      <c r="C37" s="10">
+      <c r="C37" s="21">
         <v>35</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>111</v>
+      <c r="E37" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>94</v>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B38" s="10"/>
-      <c r="C38" s="10">
+      <c r="C38" s="39">
         <v>36</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>112</v>
+      <c r="E38" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>94</v>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B39" s="10"/>
-      <c r="C39" s="10">
+      <c r="C39" s="20">
         <v>37</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>114</v>
+        <v>37</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B40" s="10"/>
-      <c r="C40" s="10">
+      <c r="C40" s="21">
         <v>38</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>121</v>
+        <v>37</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="10">
+      <c r="C41" s="39">
         <v>39</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>116</v>
+        <v>37</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="20">
+        <v>40</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="21">
+        <v>41</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="39">
+        <v>42</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10">
-        <v>40</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G42" s="36" t="s">
+      <c r="G44" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="11"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="11"/>
+      <c r="C45" s="20">
+        <v>43</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="11"/>
+      <c r="C46" s="21">
+        <v>44</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="11"/>
+      <c r="C47" s="39">
+        <v>45</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="11"/>
+      <c r="C48" s="20">
+        <v>46</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="11"/>
+      <c r="C49" s="21">
+        <v>47</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="11"/>
+      <c r="C50" s="39">
+        <v>48</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="11"/>
+      <c r="C51" s="20">
+        <v>49</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="11"/>
+      <c r="C52" s="21">
+        <v>50</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="11"/>
+      <c r="C53" s="39">
+        <v>51</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="42" t="s">
+        <v>152</v>
+      </c>
       <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="11"/>
+      <c r="C54" s="20">
+        <v>52</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="42" t="s">
+        <v>152</v>
+      </c>
       <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="11"/>
+      <c r="C55" s="21">
+        <v>53</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="42" t="s">
+        <v>152</v>
+      </c>
       <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="11"/>
+      <c r="C56" s="39">
+        <v>54</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="42" t="s">
+        <v>152</v>
+      </c>
       <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="11"/>
+      <c r="C57" s="20">
+        <v>55</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="42" t="s">
+        <v>152</v>
+      </c>
       <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="11"/>
+      <c r="C58" s="21">
+        <v>56</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="11"/>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="39">
+        <v>57</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G59" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="43" t="s">
+        <v>152</v>
+      </c>
       <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="11"/>
+      <c r="C60" s="20">
+        <v>58</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="43" t="s">
+        <v>152</v>
+      </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="11"/>
+      <c r="C61" s="39">
+        <v>59</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="43" t="s">
+        <v>152</v>
+      </c>
       <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="11"/>
+      <c r="C62" s="20">
+        <v>60</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G62" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="43" t="s">
+        <v>152</v>
+      </c>
       <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="11"/>
+      <c r="C63" s="39">
+        <v>61</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G63" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="43" t="s">
+        <v>152</v>
+      </c>
       <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="11"/>
+      <c r="C64" s="20">
+        <v>62</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="43" t="s">
+        <v>152</v>
+      </c>
       <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="11"/>
+      <c r="C65" s="39">
+        <v>63</v>
+      </c>
+      <c r="D65" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="43" t="s">
+        <v>152</v>
+      </c>
       <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
+      <c r="C66" s="20">
+        <v>64</v>
+      </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
       <c r="G66" s="11"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="43" t="s">
+        <v>152</v>
+      </c>
       <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
+      <c r="C67" s="39">
+        <v>65</v>
+      </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
       <c r="G67" s="11"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
       <c r="G68" s="11"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
       <c r="G69" s="11"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
       <c r="G70" s="11"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="9"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
       <c r="G71" s="11"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="9"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
       <c r="G72" s="11"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="9"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
       <c r="G73" s="11"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="9"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
       <c r="G74" s="11"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="9"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
       <c r="G75" s="11"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="9"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
       <c r="G76" s="11"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="9"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
       <c r="G77" s="11"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="9"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
       <c r="G78" s="11"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="9"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
       <c r="G79" s="11"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="9"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
       <c r="G80" s="11"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="9"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
       <c r="G81" s="11"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="9"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
       <c r="G82" s="11"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="9"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
       <c r="G83" s="11"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="9"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
       <c r="G84" s="11"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="9"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
       <c r="G85" s="11"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="9"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
       <c r="G86" s="11"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="9"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
       <c r="G87" s="11"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="9"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
       <c r="G88" s="11"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
       <c r="D89" s="9"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
       <c r="G89" s="11"/>
       <c r="H89" s="10"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="9"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
       <c r="G90" s="11"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="9"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
       <c r="G91" s="11"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
       <c r="D92" s="9"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
       <c r="G92" s="11"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
       <c r="D93" s="9"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
       <c r="G93" s="11"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="9"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
       <c r="G94" s="11"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="9"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
       <c r="G95" s="11"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="9"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
       <c r="G96" s="11"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="9"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
       <c r="G97" s="11"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="9"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
       <c r="G98" s="11"/>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="9"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
       <c r="G99" s="11"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="9"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
       <c r="G100" s="11"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="9"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
       <c r="G101" s="11"/>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="9"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
       <c r="G102" s="11"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="9"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
       <c r="G103" s="11"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="9"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
       <c r="G104" s="11"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="D105" s="9"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
       <c r="G105" s="11"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="9"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
       <c r="G106" s="11"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="9"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
       <c r="G107" s="11"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="9"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
       <c r="G108" s="11"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="D109" s="9"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
       <c r="G109" s="11"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="9"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="25"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
       <c r="G110" s="11"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="9"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
       <c r="G111" s="11"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="9"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
       <c r="G112" s="11"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="9"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
       <c r="G113" s="11"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="9"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
       <c r="G114" s="11"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="9"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
       <c r="G115" s="11"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
       <c r="D116" s="9"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
       <c r="G116" s="11"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
       <c r="D117" s="9"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
       <c r="G117" s="11"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="9"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="25"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
       <c r="G118" s="11"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="9"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="25"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
       <c r="G119" s="11"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
       <c r="D120" s="9"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
       <c r="G120" s="11"/>
       <c r="H120" s="10"/>
     </row>
-    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="9"/>
-      <c r="E121" s="25"/>
-      <c r="F121" s="25"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
       <c r="G121" s="11"/>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="9"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="25"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
       <c r="G122" s="11"/>
       <c r="H122" s="10"/>
     </row>
-    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
       <c r="D123" s="9"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
       <c r="G123" s="11"/>
       <c r="H123" s="10"/>
     </row>
-    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="D124" s="9"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
       <c r="G124" s="11"/>
       <c r="H124" s="10"/>
     </row>
-    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
       <c r="D125" s="9"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
       <c r="G125" s="11"/>
       <c r="H125" s="10"/>
     </row>
-    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
       <c r="D126" s="9"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="25"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
       <c r="G126" s="11"/>
       <c r="H126" s="10"/>
     </row>
+    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="10"/>
+    </row>
+    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="10"/>
+    </row>
+    <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="10"/>
+    </row>
+    <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="10"/>
+    </row>
+    <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="10"/>
+    </row>
+    <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="10"/>
+    </row>
+    <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="10"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="10"/>
+    </row>
+    <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="10"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="10"/>
+    </row>
+    <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="10"/>
+    </row>
+    <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="10"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="22"/>
+      <c r="F136" s="22"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="10"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G126">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G136" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Mobile App,Online Banking Website,Both"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin, donor, receiver, delivery person, Donor/receiver/delivery person/admin ,donor/receiver"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3891,7 +4454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3901,16 +4464,16 @@
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
-    <col min="3" max="3" width="93.36328125" customWidth="1"/>
-    <col min="4" max="4" width="118.54296875" customWidth="1"/>
-    <col min="5" max="5" width="51.90625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="93.42578125" customWidth="1"/>
+    <col min="4" max="4" width="118.5703125" customWidth="1"/>
+    <col min="5" max="5" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
@@ -3947,7 +4510,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -3974,7 +4537,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -4001,7 +4564,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -4028,7 +4591,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4055,7 +4618,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -4082,7 +4645,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4109,7 +4672,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -4136,7 +4699,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -4163,7 +4726,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -4190,7 +4753,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4217,7 +4780,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4244,7 +4807,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4271,7 +4834,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4298,7 +4861,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4325,7 +4888,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4352,7 +4915,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4379,7 +4942,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4406,7 +4969,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4433,7 +4996,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4460,7 +5023,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4487,7 +5050,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4514,7 +5077,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -4541,7 +5104,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -4568,7 +5131,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -4595,7 +5158,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -4622,7 +5185,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4649,7 +5212,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4676,7 +5239,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4703,7 +5266,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4730,7 +5293,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4757,7 +5320,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4784,7 +5347,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4811,7 +5374,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4838,7 +5401,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4865,7 +5428,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4892,7 +5455,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4919,7 +5482,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4946,7 +5509,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -4973,7 +5536,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5000,7 +5563,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5027,7 +5590,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5054,7 +5617,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5081,7 +5644,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5108,7 +5671,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5135,7 +5698,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5162,7 +5725,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5189,7 +5752,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5216,7 +5779,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -5243,7 +5806,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5270,7 +5833,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5297,7 +5860,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5324,7 +5887,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -5351,7 +5914,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -5378,7 +5941,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -5405,7 +5968,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5432,7 +5995,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -5459,7 +6022,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -5486,7 +6049,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -5513,7 +6076,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -5540,7 +6103,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -5567,7 +6130,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -5594,7 +6157,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -5621,7 +6184,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -5648,7 +6211,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -5675,7 +6238,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -5702,7 +6265,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -5729,7 +6292,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -5756,7 +6319,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -5783,7 +6346,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -5810,7 +6373,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -5837,7 +6400,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -5864,7 +6427,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -5891,7 +6454,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -5918,7 +6481,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5945,7 +6508,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5972,7 +6535,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5999,7 +6562,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -6026,7 +6589,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -6053,7 +6616,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6080,7 +6643,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -6107,7 +6670,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -6134,7 +6697,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -6161,7 +6724,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -6188,7 +6751,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6215,7 +6778,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -6242,7 +6805,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6269,7 +6832,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6296,7 +6859,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -6323,7 +6886,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -6350,7 +6913,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -6377,7 +6940,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -6404,7 +6967,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -6431,7 +6994,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -6458,7 +7021,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6485,7 +7048,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6512,7 +7075,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -6539,7 +7102,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -6566,7 +7129,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -6593,7 +7156,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -6620,7 +7183,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -6647,7 +7210,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -6674,7 +7237,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -6701,7 +7264,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -6728,7 +7291,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -6755,7 +7318,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -6782,7 +7345,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -6809,7 +7372,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6836,7 +7399,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6863,7 +7426,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -6890,7 +7453,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -6917,7 +7480,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -6944,7 +7507,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -6971,7 +7534,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -6998,7 +7561,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7025,7 +7588,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7052,7 +7615,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -7079,7 +7642,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -7106,7 +7669,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -7133,7 +7696,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -7160,7 +7723,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -7187,7 +7750,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -7214,7 +7777,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -7241,7 +7804,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -7268,7 +7831,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -7295,7 +7858,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -7322,7 +7885,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -7349,7 +7912,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -7376,7 +7939,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -7403,7 +7966,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -7430,7 +7993,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -7457,7 +8020,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -7484,7 +8047,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -7511,7 +8074,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -7538,7 +8101,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -7565,7 +8128,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -7592,7 +8155,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -7619,7 +8182,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -7646,7 +8209,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -7673,7 +8236,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -7700,7 +8263,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -7727,7 +8290,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -7754,7 +8317,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -7781,7 +8344,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -7808,7 +8371,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -7835,7 +8398,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -7862,7 +8425,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -7889,7 +8452,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -7916,7 +8479,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -7943,7 +8506,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -7970,7 +8533,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -7997,7 +8560,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -8024,7 +8587,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -8051,7 +8614,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -8078,7 +8641,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -8105,7 +8668,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -8132,7 +8695,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -8159,7 +8722,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -8186,7 +8749,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -8213,7 +8776,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -8240,7 +8803,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -8267,7 +8830,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -8294,7 +8857,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -8321,7 +8884,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -8348,7 +8911,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -8375,7 +8938,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -8402,7 +8965,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -8429,7 +8992,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -8456,7 +9019,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -8483,7 +9046,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -8510,7 +9073,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -8537,7 +9100,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -8564,7 +9127,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -8591,7 +9154,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -8618,7 +9181,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -8645,7 +9208,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -8672,7 +9235,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -8699,7 +9262,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -8726,7 +9289,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -8753,7 +9316,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -8780,7 +9343,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -8807,7 +9370,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -8834,7 +9397,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -8861,7 +9424,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -8888,7 +9451,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -8915,7 +9478,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -8942,7 +9505,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -8969,7 +9532,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -8996,7 +9559,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -9023,7 +9586,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -9050,7 +9613,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -9077,7 +9640,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -9104,7 +9667,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -9131,7 +9694,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -9158,7 +9721,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -9185,7 +9748,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -9212,7 +9775,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -9239,7 +9802,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -9266,7 +9829,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -9293,7 +9856,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -9320,7 +9883,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -9347,7 +9910,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -9374,7 +9937,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -9401,7 +9964,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -9428,7 +9991,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -9455,7 +10018,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -9482,7 +10045,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -9509,7 +10072,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -9536,7 +10099,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -9563,7 +10126,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -9590,7 +10153,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -9617,7 +10180,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -9644,7 +10207,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -9671,7 +10234,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -9698,7 +10261,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -9725,7 +10288,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -9752,7 +10315,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -9779,7 +10342,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -9806,7 +10369,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -9833,7 +10396,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -9860,786 +10423,786 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RequirementsTemplateM1.xlsx
+++ b/RequirementsTemplateM1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\SE\ashez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Habiba\Documents\GitHub\ashez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C995CF-A8D8-45E9-A2DC-6EE4094C79B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -18,14 +17,14 @@
     <sheet name="Non-Functional Requirements She" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Functional Requirements Sheet'!$D$1:$D$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Functional Requirements Sheet'!$D$1:$D$133</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="190">
   <si>
     <t>Name</t>
   </si>
@@ -288,18 +287,6 @@
     <t>I can notify interested receivers that new supplies are offered if they need it</t>
   </si>
   <si>
-    <t xml:space="preserve">choose the age of people of which the supplies are for </t>
-  </si>
-  <si>
-    <t>the right age group would benefit from them</t>
-  </si>
-  <si>
-    <t>describe the current condition of my supplies(used/new )</t>
-  </si>
-  <si>
-    <t>describe the current condition of my book (used/new )</t>
-  </si>
-  <si>
     <t xml:space="preserve">schdedule tutoring sessions for people </t>
   </si>
   <si>
@@ -327,9 +314,6 @@
     <t>I can notify donors that I need school books</t>
   </si>
   <si>
-    <t xml:space="preserve">receivers can  choose their perefereces </t>
-  </si>
-  <si>
     <t>Be notified that the books I requested are available</t>
   </si>
   <si>
@@ -526,12 +510,96 @@
   </si>
   <si>
     <t>Be able to view details(size,type,etc) of donated item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor/receiver </t>
+  </si>
+  <si>
+    <t>Be able to give feedback and comments about delivery people</t>
+  </si>
+  <si>
+    <t>delivery people with low ratings and negative comments can be dealt with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review previous feedbacks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">handle complaints against specicfic drivers and satisfy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a history of his previous delivery and pickup destinations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can return back if I lost something </t>
+  </si>
+  <si>
+    <t>accept delivering a donation</t>
+  </si>
+  <si>
+    <t>I can deliver it to its destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be able to view the vehicles's details </t>
+  </si>
+  <si>
+    <t>I can recognize the delivery driver.</t>
+  </si>
+  <si>
+    <t>Refugee and people living below the poverty line needs</t>
+  </si>
+  <si>
+    <t>I can notify receivers that an apartment is available</t>
+  </si>
+  <si>
+    <t>make a request to donate a low rent apartment</t>
+  </si>
+  <si>
+    <t>make a request to donate a free apartment</t>
+  </si>
+  <si>
+    <t>filter apartments according to my pereferences</t>
+  </si>
+  <si>
+    <t>I can choose the most appropriate apartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choose my payment plan </t>
+  </si>
+  <si>
+    <t>I can choose whether to pay in installments or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin </t>
+  </si>
+  <si>
+    <t>notify receivers that an apartment is occupied</t>
+  </si>
+  <si>
+    <t>other receivers know that it's no longer available</t>
+  </si>
+  <si>
+    <t>make a request to donate clothes, shoes, bags</t>
+  </si>
+  <si>
+    <t>I can notify receivers that an certain items are available</t>
+  </si>
+  <si>
+    <t>upload pictures of my donation</t>
+  </si>
+  <si>
+    <t>receivers have a vivid view of the donation</t>
+  </si>
+  <si>
+    <t>the admin can categorize my donation under a specific type</t>
+  </si>
+  <si>
+    <t>provide description of  my donation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -792,7 +860,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -875,17 +943,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -898,13 +955,34 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1121,7 +1199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1131,47 +1209,47 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.54296875" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1199,7 +1277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1227,7 +1305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1241,7 +1319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1255,7 +1333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1269,994 +1347,994 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:D12">
+  <sortState ref="A7:D12">
     <sortCondition ref="A7"/>
   </sortState>
   <mergeCells count="3">
@@ -2265,7 +2343,7 @@
     <mergeCell ref="A5:D5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2273,30 +2351,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="102.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.26953125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="102.453125" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2315,8 +2393,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
@@ -2333,9 +2411,9 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
-        <v>134</v>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>129</v>
       </c>
       <c r="B3" s="18">
         <v>1</v>
@@ -2357,9 +2435,9 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
-        <v>134</v>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>129</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="21">
@@ -2379,30 +2457,30 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
-        <v>134</v>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>129</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="39">
+      <c r="C5" s="34">
         <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="25"/>
@@ -2423,8 +2501,8 @@
       </c>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="24"/>
@@ -2445,12 +2523,12 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="24"/>
-      <c r="C8" s="39">
+      <c r="C8" s="34">
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -2467,8 +2545,8 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="24"/>
@@ -2479,18 +2557,18 @@
         <v>37</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="24"/>
@@ -2501,7 +2579,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>86</v>
@@ -2511,30 +2589,30 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="24"/>
-      <c r="C11" s="39">
+      <c r="C11" s="34">
         <v>9</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="24"/>
@@ -2545,18 +2623,18 @@
         <v>37</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="24"/>
@@ -2566,7 +2644,7 @@
       <c r="D13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="35" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="23" t="s">
@@ -2577,19 +2655,19 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="24"/>
-      <c r="C14" s="39">
+      <c r="C14" s="34">
         <v>12</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="40" t="s">
-        <v>130</v>
+      <c r="E14" s="35" t="s">
+        <v>125</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>60</v>
@@ -2599,8 +2677,8 @@
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="24"/>
@@ -2621,8 +2699,8 @@
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="24"/>
@@ -2643,12 +2721,12 @@
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="24"/>
-      <c r="C17" s="39">
+      <c r="C17" s="34">
         <v>15</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -2665,8 +2743,8 @@
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="24"/>
@@ -2680,15 +2758,15 @@
         <v>52</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="24"/>
@@ -2709,12 +2787,12 @@
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="24"/>
-      <c r="C20" s="39">
+      <c r="C20" s="34">
         <v>18</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -2731,8 +2809,8 @@
       </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="24"/>
@@ -2753,8 +2831,8 @@
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="24"/>
@@ -2765,40 +2843,40 @@
         <v>62</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B23" s="24"/>
-      <c r="C23" s="39">
+      <c r="C23" s="34">
         <v>21</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>62</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="24"/>
@@ -2809,18 +2887,18 @@
         <v>62</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="24"/>
@@ -2831,40 +2909,40 @@
         <v>62</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="24"/>
-      <c r="C26" s="39">
+      <c r="C26" s="34">
         <v>24</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="24"/>
@@ -2885,8 +2963,8 @@
       </c>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="10"/>
@@ -2907,12 +2985,12 @@
       </c>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="39">
+      <c r="C29" s="34">
         <v>27</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -2929,8 +3007,8 @@
       </c>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="10"/>
@@ -2951,8 +3029,8 @@
       </c>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B31" s="10"/>
@@ -2973,12 +3051,12 @@
       </c>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="39">
+      <c r="C32" s="34">
         <v>30</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -2995,8 +3073,8 @@
       </c>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="10"/>
@@ -3017,8 +3095,8 @@
       </c>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
         <v>83</v>
       </c>
       <c r="B34" s="10"/>
@@ -3029,22 +3107,22 @@
         <v>37</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="s">
         <v>83</v>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="39">
+      <c r="C35" s="34">
         <v>33</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -3061,8 +3139,8 @@
       </c>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="44" t="s">
         <v>83</v>
       </c>
       <c r="B36" s="10"/>
@@ -3073,18 +3151,18 @@
         <v>37</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
         <v>83</v>
       </c>
       <c r="B37" s="10"/>
@@ -3095,7 +3173,7 @@
         <v>37</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F37" s="22" t="s">
         <v>58</v>
@@ -3105,63 +3183,63 @@
       </c>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="44" t="s">
         <v>83</v>
       </c>
       <c r="B38" s="10"/>
-      <c r="C38" s="39">
-        <v>36</v>
+      <c r="C38" s="20">
+        <v>37</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="37" t="s">
-        <v>90</v>
+      <c r="E38" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="20">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>86</v>
+      <c r="E39" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="21">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="37" t="s">
-        <v>87</v>
+      <c r="E40" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="F40" s="22" t="s">
         <v>88</v>
@@ -3171,370 +3249,370 @@
       </c>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="39">
-        <v>39</v>
+      <c r="C41" s="34">
+        <v>42</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="37" t="s">
+      <c r="E41" s="22" t="s">
         <v>89</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="20">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E42" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="21">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" s="39">
-        <v>42</v>
+      <c r="C44" s="34">
+        <v>45</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="20">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>95</v>
+        <v>62</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="21">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B47" s="10"/>
-      <c r="C47" s="39">
-        <v>45</v>
+      <c r="C47" s="34">
+        <v>48</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="20">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="F48" s="30" t="s">
-        <v>104</v>
+      <c r="E48" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="21">
-        <v>47</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G49" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="39">
-        <v>48</v>
+      <c r="C50" s="34">
+        <v>51</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G50" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
-        <v>83</v>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
+        <v>147</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="20">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G51" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>83</v>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
+        <v>147</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="21">
-        <v>50</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G52" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>83</v>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="33" t="s">
+        <v>147</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="C53" s="39">
-        <v>51</v>
+      <c r="C53" s="34">
+        <v>54</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="G53" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="42" t="s">
-        <v>152</v>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
+        <v>147</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="20">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G54" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="42" t="s">
-        <v>152</v>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
+        <v>147</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="21">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G55" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="42" t="s">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="34">
+        <v>57</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="39">
-        <v>54</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>145</v>
+      <c r="F56" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="G56" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="42" t="s">
-        <v>152</v>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="45" t="s">
+        <v>147</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="20">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E57" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="23" t="s">
         <v>148</v>
       </c>
       <c r="F57" s="22" t="s">
@@ -3545,382 +3623,532 @@
       </c>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="42" t="s">
-        <v>152</v>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="45" t="s">
+        <v>147</v>
       </c>
       <c r="B58" s="10"/>
-      <c r="C58" s="21">
-        <v>56</v>
+      <c r="C58" s="34">
+        <v>59</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="G58" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="39">
-        <v>57</v>
-      </c>
-      <c r="D59" s="15" t="s">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="20">
+        <v>60</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>133</v>
+      <c r="E59" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="G59" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="43" t="s">
-        <v>152</v>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="45" t="s">
+        <v>147</v>
       </c>
       <c r="B60" s="10"/>
-      <c r="C60" s="20">
-        <v>58</v>
+      <c r="C60" s="34">
+        <v>61</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E60" s="23" t="s">
-        <v>153</v>
+      <c r="E60" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G60" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="43" t="s">
-        <v>152</v>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="45" t="s">
+        <v>147</v>
       </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="39">
-        <v>59</v>
+      <c r="C61" s="20">
+        <v>62</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="E61" s="22" t="s">
         <v>156</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="G61" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="43" t="s">
-        <v>152</v>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="45" t="s">
+        <v>147</v>
       </c>
       <c r="B62" s="10"/>
-      <c r="C62" s="20">
-        <v>60</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>70</v>
+      <c r="C62" s="34">
+        <v>63</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>135</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G62" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="43" t="s">
-        <v>152</v>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="45" t="s">
+        <v>147</v>
       </c>
       <c r="B63" s="10"/>
-      <c r="C63" s="39">
-        <v>61</v>
+      <c r="C63" s="20">
+        <v>64</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="E63" s="22" t="s">
         <v>163</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G63" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="43" t="s">
-        <v>152</v>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="45" t="s">
+        <v>147</v>
       </c>
       <c r="B64" s="10"/>
-      <c r="C64" s="20">
-        <v>62</v>
+      <c r="C64" s="34">
+        <v>65</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G64" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="43" t="s">
-        <v>152</v>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="45" t="s">
+        <v>147</v>
       </c>
       <c r="B65" s="10"/>
-      <c r="C65" s="39">
-        <v>63</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>140</v>
+      <c r="C65" s="10">
+        <v>66</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G65" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="43" t="s">
-        <v>152</v>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="45" t="s">
+        <v>147</v>
       </c>
       <c r="B66" s="10"/>
-      <c r="C66" s="20">
-        <v>64</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="11"/>
+      <c r="C66" s="10">
+        <v>67</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="43" t="s">
-        <v>152</v>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="45" t="s">
+        <v>147</v>
       </c>
       <c r="B67" s="10"/>
-      <c r="C67" s="39">
-        <v>65</v>
-      </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="11"/>
+      <c r="C67" s="10">
+        <v>68</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="10"/>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="45" t="s">
+        <v>147</v>
+      </c>
       <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
+      <c r="C68" s="10">
+        <v>69</v>
+      </c>
       <c r="D68" s="9"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
       <c r="G68" s="11"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="10"/>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="45" t="s">
+        <v>147</v>
+      </c>
       <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
+      <c r="C69" s="10">
+        <v>70</v>
+      </c>
       <c r="D69" s="9"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
       <c r="G69" s="11"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="10"/>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="45" t="s">
+        <v>147</v>
+      </c>
       <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
+      <c r="C70" s="10">
+        <v>71</v>
+      </c>
       <c r="D70" s="9"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
       <c r="G70" s="11"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="10"/>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="45" t="s">
+        <v>147</v>
+      </c>
       <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
+      <c r="C71" s="10">
+        <v>72</v>
+      </c>
       <c r="D71" s="9"/>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
       <c r="G71" s="11"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="10"/>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="11"/>
+      <c r="C72" s="10">
+        <v>73</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="10"/>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="11"/>
+      <c r="C73" s="10">
+        <v>74</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="10"/>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="46" t="s">
+        <v>129</v>
+      </c>
       <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="11"/>
+      <c r="C74" s="10">
+        <v>75</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="10"/>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="46" t="s">
+        <v>129</v>
+      </c>
       <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="11"/>
+      <c r="C75" s="10">
+        <v>76</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="10"/>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="11"/>
+      <c r="C76" s="10">
+        <v>77</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="10"/>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="11"/>
+      <c r="C77" s="10">
+        <v>78</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="10"/>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="11"/>
+      <c r="C78" s="10">
+        <v>79</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="10"/>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="11"/>
+      <c r="C79" s="10">
+        <v>80</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="10"/>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="9"/>
+      <c r="C80" s="10">
+        <v>81</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
       <c r="G80" s="11"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="10"/>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
+      <c r="C81" s="10">
+        <v>82</v>
+      </c>
       <c r="D81" s="9"/>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
       <c r="G81" s="11"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="10"/>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
+      <c r="C82" s="10">
+        <v>83</v>
+      </c>
       <c r="D82" s="9"/>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="11"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="10"/>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
+      <c r="C83" s="10">
+        <v>84</v>
+      </c>
       <c r="D83" s="9"/>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
       <c r="G83" s="11"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="10"/>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
+      <c r="C84" s="10">
+        <v>85</v>
+      </c>
       <c r="D84" s="9"/>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
       <c r="G84" s="11"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="10"/>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="22"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="9"/>
@@ -3929,8 +4157,8 @@
       <c r="G85" s="11"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="10"/>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="22"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="9"/>
@@ -3939,8 +4167,8 @@
       <c r="G86" s="11"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="10"/>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="22"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="9"/>
@@ -3949,8 +4177,8 @@
       <c r="G87" s="11"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="10"/>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="22"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="9"/>
@@ -3959,8 +4187,8 @@
       <c r="G88" s="11"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="10"/>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="22"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
       <c r="D89" s="9"/>
@@ -3969,8 +4197,8 @@
       <c r="G89" s="11"/>
       <c r="H89" s="10"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="10"/>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="22"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="9"/>
@@ -3979,8 +4207,8 @@
       <c r="G90" s="11"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="10"/>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="22"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="9"/>
@@ -3989,8 +4217,8 @@
       <c r="G91" s="11"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="10"/>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="22"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
       <c r="D92" s="9"/>
@@ -3999,8 +4227,8 @@
       <c r="G92" s="11"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="10"/>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="22"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
       <c r="D93" s="9"/>
@@ -4009,8 +4237,8 @@
       <c r="G93" s="11"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="10"/>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="22"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="9"/>
@@ -4019,8 +4247,8 @@
       <c r="G94" s="11"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="10"/>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="22"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="9"/>
@@ -4029,8 +4257,8 @@
       <c r="G95" s="11"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="10"/>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="22"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="9"/>
@@ -4039,8 +4267,8 @@
       <c r="G96" s="11"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="10"/>
+    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="22"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="9"/>
@@ -4049,8 +4277,8 @@
       <c r="G97" s="11"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="10"/>
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="22"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="9"/>
@@ -4059,8 +4287,8 @@
       <c r="G98" s="11"/>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="10"/>
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="22"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="9"/>
@@ -4069,8 +4297,8 @@
       <c r="G99" s="11"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="10"/>
+    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="22"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="9"/>
@@ -4079,8 +4307,8 @@
       <c r="G100" s="11"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="10"/>
+    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="22"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="9"/>
@@ -4089,8 +4317,8 @@
       <c r="G101" s="11"/>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="10"/>
+    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="22"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="9"/>
@@ -4099,8 +4327,8 @@
       <c r="G102" s="11"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="10"/>
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="22"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="9"/>
@@ -4109,8 +4337,8 @@
       <c r="G103" s="11"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="10"/>
+    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="22"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="9"/>
@@ -4119,8 +4347,8 @@
       <c r="G104" s="11"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="10"/>
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="22"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="D105" s="9"/>
@@ -4129,8 +4357,8 @@
       <c r="G105" s="11"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="10"/>
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="22"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="9"/>
@@ -4139,8 +4367,8 @@
       <c r="G106" s="11"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="10"/>
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="22"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="9"/>
@@ -4149,8 +4377,8 @@
       <c r="G107" s="11"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="10"/>
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="22"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="9"/>
@@ -4159,8 +4387,8 @@
       <c r="G108" s="11"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="10"/>
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="22"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="D109" s="9"/>
@@ -4169,8 +4397,8 @@
       <c r="G109" s="11"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="10"/>
+    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="22"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="9"/>
@@ -4179,8 +4407,8 @@
       <c r="G110" s="11"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="10"/>
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="22"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="9"/>
@@ -4189,8 +4417,8 @@
       <c r="G111" s="11"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="10"/>
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="22"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="9"/>
@@ -4199,8 +4427,8 @@
       <c r="G112" s="11"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="10"/>
+    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="22"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="9"/>
@@ -4209,8 +4437,8 @@
       <c r="G113" s="11"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="10"/>
+    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="22"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="9"/>
@@ -4219,8 +4447,8 @@
       <c r="G114" s="11"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="10"/>
+    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="22"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="9"/>
@@ -4229,8 +4457,8 @@
       <c r="G115" s="11"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="10"/>
+    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="22"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
       <c r="D116" s="9"/>
@@ -4239,8 +4467,8 @@
       <c r="G116" s="11"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="10"/>
+    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="22"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
       <c r="D117" s="9"/>
@@ -4249,8 +4477,8 @@
       <c r="G117" s="11"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="10"/>
+    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="22"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="9"/>
@@ -4259,8 +4487,8 @@
       <c r="G118" s="11"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="10"/>
+    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="22"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="9"/>
@@ -4269,8 +4497,8 @@
       <c r="G119" s="11"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="10"/>
+    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="22"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
       <c r="D120" s="9"/>
@@ -4279,8 +4507,8 @@
       <c r="G120" s="11"/>
       <c r="H120" s="10"/>
     </row>
-    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="10"/>
+    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="22"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="9"/>
@@ -4289,8 +4517,8 @@
       <c r="G121" s="11"/>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="10"/>
+    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="22"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="9"/>
@@ -4299,8 +4527,8 @@
       <c r="G122" s="11"/>
       <c r="H122" s="10"/>
     </row>
-    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="10"/>
+    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="22"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
       <c r="D123" s="9"/>
@@ -4309,8 +4537,8 @@
       <c r="G123" s="11"/>
       <c r="H123" s="10"/>
     </row>
-    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="10"/>
+    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="22"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="D124" s="9"/>
@@ -4319,8 +4547,8 @@
       <c r="G124" s="11"/>
       <c r="H124" s="10"/>
     </row>
-    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="10"/>
+    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="22"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
       <c r="D125" s="9"/>
@@ -4329,8 +4557,8 @@
       <c r="G125" s="11"/>
       <c r="H125" s="10"/>
     </row>
-    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="10"/>
+    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="22"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
       <c r="D126" s="9"/>
@@ -4339,8 +4567,8 @@
       <c r="G126" s="11"/>
       <c r="H126" s="10"/>
     </row>
-    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="10"/>
+    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="22"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
       <c r="D127" s="9"/>
@@ -4349,8 +4577,8 @@
       <c r="G127" s="11"/>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="10"/>
+    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="22"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
       <c r="D128" s="9"/>
@@ -4359,8 +4587,8 @@
       <c r="G128" s="11"/>
       <c r="H128" s="10"/>
     </row>
-    <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="10"/>
+    <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="22"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
       <c r="D129" s="9"/>
@@ -4369,8 +4597,8 @@
       <c r="G129" s="11"/>
       <c r="H129" s="10"/>
     </row>
-    <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="10"/>
+    <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="22"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
       <c r="D130" s="9"/>
@@ -4379,8 +4607,8 @@
       <c r="G130" s="11"/>
       <c r="H130" s="10"/>
     </row>
-    <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="10"/>
+    <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="22"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
       <c r="D131" s="9"/>
@@ -4389,8 +4617,8 @@
       <c r="G131" s="11"/>
       <c r="H131" s="10"/>
     </row>
-    <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="10"/>
+    <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="22"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
       <c r="D132" s="9"/>
@@ -4399,8 +4627,8 @@
       <c r="G132" s="11"/>
       <c r="H132" s="10"/>
     </row>
-    <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="10"/>
+    <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="22"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
       <c r="D133" s="9"/>
@@ -4409,42 +4637,12 @@
       <c r="G133" s="11"/>
       <c r="H133" s="10"/>
     </row>
-    <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="10"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="10"/>
-    </row>
-    <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="10"/>
-    </row>
-    <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="10"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="22"/>
-      <c r="F136" s="22"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="10"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G136" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G133">
       <formula1>"Mobile App,Online Banking Website,Both"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D1:D1048576">
       <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin, donor, receiver, delivery person, Donor/receiver/delivery person/admin ,donor/receiver"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4454,7 +4652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4464,16 +4662,16 @@
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="93.42578125" customWidth="1"/>
-    <col min="4" max="4" width="118.5703125" customWidth="1"/>
-    <col min="5" max="5" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="93.453125" customWidth="1"/>
+    <col min="4" max="4" width="118.54296875" customWidth="1"/>
+    <col min="5" max="5" width="51.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
@@ -4510,7 +4708,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -4537,7 +4735,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -4564,7 +4762,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -4591,7 +4789,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4618,7 +4816,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -4645,7 +4843,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4672,7 +4870,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -4699,7 +4897,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -4726,7 +4924,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -4753,7 +4951,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4780,7 +4978,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4807,7 +5005,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4834,7 +5032,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4861,7 +5059,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4888,7 +5086,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4915,7 +5113,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4942,7 +5140,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4969,7 +5167,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4996,7 +5194,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -5023,7 +5221,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5050,7 +5248,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5077,7 +5275,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -5104,7 +5302,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5131,7 +5329,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5158,7 +5356,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -5185,7 +5383,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5212,7 +5410,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -5239,7 +5437,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -5266,7 +5464,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5293,7 +5491,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5320,7 +5518,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5347,7 +5545,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5374,7 +5572,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5401,7 +5599,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -5428,7 +5626,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5455,7 +5653,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -5482,7 +5680,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5509,7 +5707,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5536,7 +5734,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5563,7 +5761,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5590,7 +5788,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5617,7 +5815,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5644,7 +5842,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5671,7 +5869,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5698,7 +5896,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5725,7 +5923,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5752,7 +5950,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5779,7 +5977,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -5806,7 +6004,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5833,7 +6031,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5860,7 +6058,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5887,7 +6085,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -5914,7 +6112,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -5941,7 +6139,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -5968,7 +6166,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5995,7 +6193,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -6022,7 +6220,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -6049,7 +6247,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -6076,7 +6274,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -6103,7 +6301,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -6130,7 +6328,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -6157,7 +6355,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -6184,7 +6382,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -6211,7 +6409,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -6238,7 +6436,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -6265,7 +6463,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -6292,7 +6490,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -6319,7 +6517,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -6346,7 +6544,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -6373,7 +6571,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -6400,7 +6598,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -6427,7 +6625,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -6454,7 +6652,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -6481,7 +6679,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -6508,7 +6706,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -6535,7 +6733,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -6562,7 +6760,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -6589,7 +6787,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -6616,7 +6814,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6643,7 +6841,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -6670,7 +6868,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -6697,7 +6895,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -6724,7 +6922,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -6751,7 +6949,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6778,7 +6976,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -6805,7 +7003,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6832,7 +7030,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6859,7 +7057,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -6886,7 +7084,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -6913,7 +7111,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -6940,7 +7138,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -6967,7 +7165,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -6994,7 +7192,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -7021,7 +7219,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -7048,7 +7246,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -7075,7 +7273,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -7102,7 +7300,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -7129,7 +7327,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -7156,7 +7354,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -7183,7 +7381,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -7210,7 +7408,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -7237,7 +7435,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -7264,7 +7462,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -7291,7 +7489,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -7318,7 +7516,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7345,7 +7543,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -7372,7 +7570,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -7399,7 +7597,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -7426,7 +7624,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7453,7 +7651,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7480,7 +7678,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -7507,7 +7705,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -7534,7 +7732,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -7561,7 +7759,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7588,7 +7786,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7615,7 +7813,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -7642,7 +7840,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -7669,7 +7867,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -7696,7 +7894,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -7723,7 +7921,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -7750,7 +7948,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -7777,7 +7975,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -7804,7 +8002,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -7831,7 +8029,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -7858,7 +8056,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -7885,7 +8083,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -7912,7 +8110,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -7939,7 +8137,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -7966,7 +8164,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -7993,7 +8191,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -8020,7 +8218,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -8047,7 +8245,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -8074,7 +8272,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -8101,7 +8299,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -8128,7 +8326,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -8155,7 +8353,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -8182,7 +8380,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -8209,7 +8407,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -8236,7 +8434,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -8263,7 +8461,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -8290,7 +8488,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -8317,7 +8515,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -8344,7 +8542,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -8371,7 +8569,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -8398,7 +8596,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -8425,7 +8623,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -8452,7 +8650,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -8479,7 +8677,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -8506,7 +8704,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -8533,7 +8731,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -8560,7 +8758,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -8587,7 +8785,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -8614,7 +8812,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -8641,7 +8839,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -8668,7 +8866,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -8695,7 +8893,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -8722,7 +8920,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -8749,7 +8947,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -8776,7 +8974,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -8803,7 +9001,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -8830,7 +9028,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -8857,7 +9055,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -8884,7 +9082,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -8911,7 +9109,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -8938,7 +9136,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -8965,7 +9163,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -8992,7 +9190,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -9019,7 +9217,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -9046,7 +9244,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -9073,7 +9271,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -9100,7 +9298,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -9127,7 +9325,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -9154,7 +9352,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -9181,7 +9379,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -9208,7 +9406,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -9235,7 +9433,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -9262,7 +9460,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -9289,7 +9487,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -9316,7 +9514,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -9343,7 +9541,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -9370,7 +9568,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -9397,7 +9595,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -9424,7 +9622,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -9451,7 +9649,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -9478,7 +9676,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -9505,7 +9703,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -9532,7 +9730,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -9559,7 +9757,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -9586,7 +9784,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -9613,7 +9811,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -9640,7 +9838,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -9667,7 +9865,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -9694,7 +9892,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -9721,7 +9919,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -9748,7 +9946,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -9775,7 +9973,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -9802,7 +10000,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -9829,7 +10027,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -9856,7 +10054,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -9883,7 +10081,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -9910,7 +10108,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -9937,7 +10135,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -9964,7 +10162,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -9991,7 +10189,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -10018,7 +10216,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -10045,7 +10243,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -10072,7 +10270,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -10099,7 +10297,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -10126,7 +10324,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -10153,7 +10351,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -10180,7 +10378,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -10207,7 +10405,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -10234,7 +10432,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -10261,7 +10459,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -10288,7 +10486,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -10315,7 +10513,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -10342,7 +10540,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -10369,7 +10567,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -10396,7 +10594,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -10423,786 +10621,786 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RequirementsTemplateM1.xlsx
+++ b/RequirementsTemplateM1.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Non-Functional Requirements She" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Functional Requirements Sheet'!$D$1:$D$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Functional Requirements Sheet'!$D$1:$D$134</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="200">
   <si>
     <t>Name</t>
   </si>
@@ -464,9 +464,6 @@
     <t>I can ensure efficient delivery.</t>
   </si>
   <si>
-    <t>I can reach him if I'm lost or if I've arrived.</t>
-  </si>
-  <si>
     <t>Pickup/ delivery of donations</t>
   </si>
   <si>
@@ -503,9 +500,6 @@
     <t>Be able to complain that I received the wrong donation</t>
   </si>
   <si>
-    <t>Be able to contact the receiver/donor</t>
-  </si>
-  <si>
     <t>I know what type of vehicle to use for delivery</t>
   </si>
   <si>
@@ -527,9 +521,6 @@
     <t xml:space="preserve">handle complaints against specicfic drivers and satisfy </t>
   </si>
   <si>
-    <t xml:space="preserve">have a history of his previous delivery and pickup destinations </t>
-  </si>
-  <si>
     <t xml:space="preserve">I can return back if I lost something </t>
   </si>
   <si>
@@ -578,12 +569,6 @@
     <t>other receivers know that it's no longer available</t>
   </si>
   <si>
-    <t>make a request to donate clothes, shoes, bags</t>
-  </si>
-  <si>
-    <t>I can notify receivers that an certain items are available</t>
-  </si>
-  <si>
     <t>upload pictures of my donation</t>
   </si>
   <si>
@@ -594,6 +579,51 @@
   </si>
   <si>
     <t>provide description of  my donation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a history of my previous delivery and pickup destinations </t>
+  </si>
+  <si>
+    <t>the delivery person picks up/delivers to the correct location</t>
+  </si>
+  <si>
+    <t>edit /save my address info</t>
+  </si>
+  <si>
+    <t>Be able to sign out</t>
+  </si>
+  <si>
+    <t>I temporarily get out of my account.</t>
+  </si>
+  <si>
+    <t>delivery person/donor/receiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can reach them if I'm lost or if I've arrived </t>
+  </si>
+  <si>
+    <t>Pickup/ delivery of donations/ Refugee and people living below the poverty line needs</t>
+  </si>
+  <si>
+    <t>Be able to contact the other party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I should be able to receive a verification code </t>
+  </si>
+  <si>
+    <t>So that the delivery person can confirm my order</t>
+  </si>
+  <si>
+    <t>view a list of organizations to donate to</t>
+  </si>
+  <si>
+    <t>I can choose my desired place to receive my donation</t>
+  </si>
+  <si>
+    <t>write thank you notes to donors</t>
+  </si>
+  <si>
+    <t>I can show appreciation and gratitude</t>
   </si>
 </sst>
 </file>
@@ -744,7 +774,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,6 +808,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -860,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -958,17 +994,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -983,6 +1009,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1216,38 +1256,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
@@ -2355,15 +2395,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.26953125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.6328125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.54296875" bestFit="1" customWidth="1"/>
@@ -2394,7 +2434,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
@@ -2412,7 +2452,7 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="39" t="s">
         <v>129</v>
       </c>
       <c r="B3" s="18">
@@ -2436,7 +2476,7 @@
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="39" t="s">
         <v>129</v>
       </c>
       <c r="B4" s="24"/>
@@ -2457,88 +2497,86 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:8" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="34">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>142</v>
+      <c r="B5" s="24"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>189</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="20">
-        <v>4</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>55</v>
+      <c r="A6" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="34">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="21">
-        <v>5</v>
+      <c r="B7" s="25"/>
+      <c r="C7" s="20">
+        <v>4</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="24"/>
-      <c r="C8" s="34">
-        <v>6</v>
+      <c r="C8" s="21">
+        <v>5</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>30</v>
@@ -2546,21 +2584,21 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="24"/>
-      <c r="C9" s="20">
-        <v>7</v>
+      <c r="C9" s="34">
+        <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>30</v>
@@ -2568,21 +2606,21 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="24"/>
-      <c r="C10" s="21">
-        <v>8</v>
+      <c r="C10" s="20">
+        <v>7</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>30</v>
@@ -2590,21 +2628,21 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="24"/>
-      <c r="C11" s="34">
-        <v>9</v>
+      <c r="C11" s="21">
+        <v>8</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>30</v>
@@ -2612,21 +2650,21 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="24"/>
-      <c r="C12" s="20">
-        <v>10</v>
+      <c r="C12" s="34">
+        <v>9</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>30</v>
@@ -2634,21 +2672,21 @@
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="24"/>
-      <c r="C13" s="21">
-        <v>11</v>
+      <c r="C13" s="20">
+        <v>10</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="35" t="s">
-        <v>59</v>
+      <c r="E13" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>30</v>
@@ -2656,21 +2694,21 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="24"/>
-      <c r="C14" s="34">
-        <v>12</v>
+      <c r="C14" s="21">
+        <v>11</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>30</v>
@@ -2678,21 +2716,21 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="24"/>
-      <c r="C15" s="20">
-        <v>13</v>
+      <c r="C15" s="34">
+        <v>12</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>56</v>
+      <c r="E15" s="35" t="s">
+        <v>125</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>30</v>
@@ -2700,21 +2738,21 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="24"/>
-      <c r="C16" s="21">
-        <v>14</v>
+      <c r="C16" s="20">
+        <v>13</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>30</v>
@@ -2722,21 +2760,21 @@
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="24"/>
-      <c r="C17" s="34">
-        <v>15</v>
+      <c r="C17" s="21">
+        <v>14</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>30</v>
@@ -2744,21 +2782,21 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="24"/>
-      <c r="C18" s="20">
-        <v>16</v>
+      <c r="C18" s="34">
+        <v>15</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>30</v>
@@ -2766,43 +2804,43 @@
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="24"/>
-      <c r="C19" s="21">
-        <v>17</v>
+      <c r="C19" s="20">
+        <v>16</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="24"/>
-      <c r="C20" s="34">
-        <v>18</v>
+      <c r="C20" s="21">
+        <v>17</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>30</v>
@@ -2810,21 +2848,21 @@
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="24"/>
-      <c r="C21" s="20">
-        <v>19</v>
+      <c r="C21" s="34">
+        <v>18</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>30</v>
@@ -2832,21 +2870,21 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="24"/>
-      <c r="C22" s="21">
-        <v>20</v>
+      <c r="C22" s="20">
+        <v>19</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>62</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>30</v>
@@ -2854,21 +2892,21 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B23" s="24"/>
-      <c r="C23" s="34">
-        <v>21</v>
+      <c r="C23" s="21">
+        <v>20</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>62</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>30</v>
@@ -2876,21 +2914,21 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="24"/>
-      <c r="C24" s="20">
-        <v>22</v>
+      <c r="C24" s="34">
+        <v>21</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>62</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>30</v>
@@ -2898,43 +2936,43 @@
       <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="24"/>
-      <c r="C25" s="21">
-        <v>23</v>
+      <c r="C25" s="20">
+        <v>22</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>62</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+    <row r="26" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="24"/>
-      <c r="C26" s="34">
-        <v>24</v>
+      <c r="C26" s="21">
+        <v>23</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>30</v>
@@ -2942,21 +2980,21 @@
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="24"/>
-      <c r="C27" s="20">
-        <v>25</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="34">
+        <v>24</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>65</v>
+      <c r="E27" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>30</v>
@@ -2964,21 +3002,21 @@
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="21">
-        <v>26</v>
+      <c r="B28" s="24"/>
+      <c r="C28" s="20">
+        <v>25</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>30</v>
@@ -2986,21 +3024,21 @@
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="34">
-        <v>27</v>
+      <c r="C29" s="21">
+        <v>26</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>30</v>
@@ -3008,65 +3046,65 @@
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="20">
-        <v>28</v>
+      <c r="C30" s="34">
+        <v>27</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>72</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="21">
-        <v>29</v>
+      <c r="C31" s="20">
+        <v>28</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>72</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+    <row r="32" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="34">
-        <v>30</v>
+      <c r="C32" s="21">
+        <v>29</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>72</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>30</v>
@@ -3074,21 +3112,21 @@
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="20">
-        <v>31</v>
+      <c r="C33" s="34">
+        <v>30</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>72</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>30</v>
@@ -3096,21 +3134,21 @@
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
-        <v>83</v>
+      <c r="A34" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="21">
-        <v>32</v>
+      <c r="C34" s="20">
+        <v>31</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>30</v>
@@ -3118,21 +3156,21 @@
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="40" t="s">
         <v>83</v>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="34">
-        <v>33</v>
+      <c r="C35" s="21">
+        <v>32</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>30</v>
@@ -3140,21 +3178,21 @@
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="40" t="s">
         <v>83</v>
       </c>
       <c r="B36" s="10"/>
-      <c r="C36" s="20">
-        <v>34</v>
+      <c r="C36" s="34">
+        <v>33</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>30</v>
@@ -3162,21 +3200,21 @@
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="40" t="s">
         <v>83</v>
       </c>
       <c r="B37" s="10"/>
-      <c r="C37" s="21">
-        <v>35</v>
+      <c r="C37" s="20">
+        <v>34</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>30</v>
@@ -3184,21 +3222,21 @@
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="40" t="s">
         <v>83</v>
       </c>
       <c r="B38" s="10"/>
-      <c r="C38" s="20">
-        <v>37</v>
+      <c r="C38" s="21">
+        <v>35</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="33" t="s">
-        <v>85</v>
+      <c r="E38" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>30</v>
@@ -3206,21 +3244,21 @@
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="40" t="s">
         <v>83</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="20">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>44</v>
+      <c r="E39" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>30</v>
@@ -3232,17 +3270,17 @@
         <v>83</v>
       </c>
       <c r="B40" s="10"/>
-      <c r="C40" s="21">
-        <v>41</v>
+      <c r="C40" s="20">
+        <v>40</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>30</v>
@@ -3254,17 +3292,17 @@
         <v>83</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="34">
-        <v>42</v>
+      <c r="C41" s="21">
+        <v>41</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>30</v>
@@ -3276,17 +3314,17 @@
         <v>83</v>
       </c>
       <c r="B42" s="10"/>
-      <c r="C42" s="20">
-        <v>43</v>
+      <c r="C42" s="34">
+        <v>42</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>30</v>
@@ -3298,17 +3336,17 @@
         <v>83</v>
       </c>
       <c r="B43" s="10"/>
-      <c r="C43" s="21">
-        <v>44</v>
+      <c r="C43" s="20">
+        <v>43</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>30</v>
@@ -3320,17 +3358,17 @@
         <v>83</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" s="34">
-        <v>45</v>
+      <c r="C44" s="21">
+        <v>44</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>30</v>
@@ -3342,17 +3380,17 @@
         <v>83</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="20">
-        <v>46</v>
+      <c r="C45" s="34">
+        <v>45</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>99</v>
+      <c r="E45" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>30</v>
@@ -3364,17 +3402,17 @@
         <v>83</v>
       </c>
       <c r="B46" s="10"/>
-      <c r="C46" s="21">
-        <v>47</v>
+      <c r="C46" s="20">
+        <v>46</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>133</v>
+      <c r="E46" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>30</v>
@@ -3386,17 +3424,17 @@
         <v>83</v>
       </c>
       <c r="B47" s="10"/>
-      <c r="C47" s="34">
-        <v>48</v>
+      <c r="C47" s="21">
+        <v>47</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>30</v>
@@ -3408,17 +3446,17 @@
         <v>83</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="20">
-        <v>49</v>
+      <c r="C48" s="34">
+        <v>48</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>30</v>
@@ -3430,19 +3468,19 @@
         <v>83</v>
       </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="21">
-        <v>50</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>70</v>
+      <c r="C49" s="20">
+        <v>49</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="G49" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H49" s="10"/>
@@ -3452,17 +3490,17 @@
         <v>83</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="34">
-        <v>51</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>72</v>
+      <c r="C50" s="21">
+        <v>50</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="G50" s="31" t="s">
         <v>30</v>
@@ -3470,21 +3508,21 @@
       <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
-        <v>147</v>
+      <c r="A51" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="20">
-        <v>52</v>
+      <c r="C51" s="34">
+        <v>51</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="G51" s="31" t="s">
         <v>30</v>
@@ -3493,20 +3531,20 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="21">
-        <v>53</v>
+      <c r="C52" s="20">
+        <v>52</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G52" s="31" t="s">
         <v>30</v>
@@ -3515,20 +3553,20 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="C53" s="34">
-        <v>54</v>
+      <c r="C53" s="21">
+        <v>53</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G53" s="31" t="s">
         <v>30</v>
@@ -3537,20 +3575,20 @@
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B54" s="10"/>
-      <c r="C54" s="20">
-        <v>55</v>
+      <c r="C54" s="34">
+        <v>54</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>135</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G54" s="31" t="s">
         <v>30</v>
@@ -3559,20 +3597,20 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B55" s="10"/>
-      <c r="C55" s="21">
-        <v>56</v>
+      <c r="C55" s="20">
+        <v>55</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>135</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G55" s="31" t="s">
         <v>30</v>
@@ -3580,21 +3618,21 @@
       <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="34">
-        <v>57</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>128</v>
+      <c r="A56" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="21">
+        <v>56</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="G56" s="31" t="s">
         <v>30</v>
@@ -3602,21 +3640,21 @@
       <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="20">
-        <v>58</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>62</v>
+      <c r="A57" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="34">
+        <v>57</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="G57" s="31" t="s">
         <v>30</v>
@@ -3624,21 +3662,21 @@
       <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="20">
+        <v>58</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="34">
-        <v>59</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>151</v>
-      </c>
       <c r="F58" s="22" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="G58" s="31" t="s">
         <v>30</v>
@@ -3646,21 +3684,21 @@
       <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="45" t="s">
-        <v>147</v>
+      <c r="A59" s="41" t="s">
+        <v>146</v>
       </c>
       <c r="B59" s="10"/>
-      <c r="C59" s="20">
-        <v>60</v>
+      <c r="C59" s="34">
+        <v>59</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="G59" s="31" t="s">
         <v>30</v>
@@ -3668,21 +3706,21 @@
       <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="45" t="s">
-        <v>147</v>
+      <c r="A60" s="41" t="s">
+        <v>146</v>
       </c>
       <c r="B60" s="10"/>
-      <c r="C60" s="34">
-        <v>61</v>
+      <c r="C60" s="20">
+        <v>60</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G60" s="31" t="s">
         <v>30</v>
@@ -3690,21 +3728,21 @@
       <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="45" t="s">
-        <v>147</v>
+      <c r="A61" s="41" t="s">
+        <v>146</v>
       </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="20">
+      <c r="C61" s="34">
+        <v>61</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>135</v>
-      </c>
       <c r="E61" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G61" s="31" t="s">
         <v>30</v>
@@ -3712,21 +3750,21 @@
       <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="45" t="s">
-        <v>147</v>
+      <c r="A62" s="41" t="s">
+        <v>146</v>
       </c>
       <c r="B62" s="10"/>
-      <c r="C62" s="34">
-        <v>63</v>
-      </c>
-      <c r="D62" s="36" t="s">
+      <c r="C62" s="20">
+        <v>62</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>135</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G62" s="31" t="s">
         <v>30</v>
@@ -3734,21 +3772,21 @@
       <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="45" t="s">
-        <v>147</v>
+      <c r="A63" s="41" t="s">
+        <v>146</v>
       </c>
       <c r="B63" s="10"/>
-      <c r="C63" s="20">
-        <v>64</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>162</v>
+      <c r="C63" s="34">
+        <v>63</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>135</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G63" s="31" t="s">
         <v>30</v>
@@ -3756,21 +3794,21 @@
       <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="45" t="s">
-        <v>147</v>
+      <c r="A64" s="41" t="s">
+        <v>146</v>
       </c>
       <c r="B64" s="10"/>
-      <c r="C64" s="34">
-        <v>65</v>
+      <c r="C64" s="20">
+        <v>64</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G64" s="31" t="s">
         <v>30</v>
@@ -3778,21 +3816,21 @@
       <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="45" t="s">
-        <v>147</v>
+      <c r="A65" s="41" t="s">
+        <v>146</v>
       </c>
       <c r="B65" s="10"/>
-      <c r="C65" s="10">
-        <v>66</v>
+      <c r="C65" s="34">
+        <v>65</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G65" s="31" t="s">
         <v>30</v>
@@ -3800,43 +3838,43 @@
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="45" t="s">
-        <v>147</v>
+      <c r="A66" s="41" t="s">
+        <v>146</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>135</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="G66" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G66" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="45" t="s">
-        <v>147</v>
+      <c r="A67" s="41" t="s">
+        <v>146</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>30</v>
@@ -3844,54 +3882,78 @@
       <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="45" t="s">
-        <v>147</v>
+      <c r="A68" s="41" t="s">
+        <v>146</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10">
-        <v>69</v>
-      </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H68" s="10"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="45" t="s">
-        <v>147</v>
+      <c r="A69" s="41" t="s">
+        <v>146</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10">
+        <v>69</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="11"/>
+      <c r="E69" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="45" t="s">
-        <v>147</v>
+      <c r="A70" s="41" t="s">
+        <v>146</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10">
-        <v>71</v>
-      </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="D70" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="45" t="s">
-        <v>147</v>
+      <c r="A71" s="41" t="s">
+        <v>146</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="22"/>
@@ -3900,43 +3962,35 @@
       <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="44" t="s">
-        <v>173</v>
+      <c r="A72" s="41" t="s">
+        <v>146</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10">
-        <v>73</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="F72" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>30</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="11"/>
       <c r="H72" s="10"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="44" t="s">
-        <v>173</v>
+      <c r="A73" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>30</v>
@@ -3944,21 +3998,21 @@
       <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="46" t="s">
-        <v>129</v>
+      <c r="A74" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="10">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>30</v>
@@ -3966,21 +4020,21 @@
       <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="42" t="s">
         <v>129</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>30</v>
@@ -3988,21 +4042,21 @@
       <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="44" t="s">
-        <v>173</v>
+      <c r="A76" s="42" t="s">
+        <v>129</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>30</v>
@@ -4010,21 +4064,21 @@
       <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="44" t="s">
-        <v>173</v>
+      <c r="A77" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>30</v>
@@ -4032,21 +4086,21 @@
       <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="44" t="s">
-        <v>173</v>
+      <c r="A78" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>30</v>
@@ -4054,21 +4108,21 @@
       <c r="H78" s="10"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="44" t="s">
-        <v>173</v>
+      <c r="A79" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10">
-        <v>80</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>37</v>
+        <v>79</v>
+      </c>
+      <c r="D79" s="36" t="s">
+        <v>178</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>30</v>
@@ -4076,28 +4130,34 @@
       <c r="H79" s="10"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="44" t="s">
-        <v>173</v>
+      <c r="A80" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="11"/>
+      <c r="E80" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H80" s="10"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="44" t="s">
-        <v>173</v>
+      <c r="A81" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="22"/>
@@ -4106,12 +4166,12 @@
       <c r="H81" s="10"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="44" t="s">
-        <v>173</v>
+      <c r="A82" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="22"/>
@@ -4120,12 +4180,12 @@
       <c r="H82" s="10"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="44" t="s">
-        <v>173</v>
+      <c r="A83" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="22"/>
@@ -4134,12 +4194,12 @@
       <c r="H83" s="10"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="44" t="s">
-        <v>173</v>
+      <c r="A84" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="22"/>
@@ -4148,9 +4208,13 @@
       <c r="H84" s="10"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
+      <c r="A85" s="40" t="s">
+        <v>170</v>
+      </c>
       <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
+      <c r="C85" s="10">
+        <v>85</v>
+      </c>
       <c r="D85" s="9"/>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
@@ -4158,13 +4222,25 @@
       <c r="H85" s="10"/>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
+      <c r="A86" s="22" t="s">
+        <v>129</v>
+      </c>
       <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="11"/>
+      <c r="C86" s="10">
+        <v>86</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F86" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H86" s="10"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4637,9 +4713,19 @@
       <c r="G133" s="11"/>
       <c r="H133" s="10"/>
     </row>
+    <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="22"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="10"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G133">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G134">
       <formula1>"Mobile App,Online Banking Website,Both"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="D1:D1048576">

--- a/RequirementsTemplateM1.xlsx
+++ b/RequirementsTemplateM1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Habiba\Documents\GitHub\ashez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\SE\ashez\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADA86C0-96A9-4CFD-9033-DEB751DA368C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -17,14 +18,14 @@
     <sheet name="Non-Functional Requirements She" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Functional Requirements Sheet'!$D$1:$D$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Functional Requirements Sheet'!$D$1:$D$131</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="193">
   <si>
     <t>Name</t>
   </si>
@@ -149,9 +150,6 @@
     <t>I have access to the system.</t>
   </si>
   <si>
-    <t>I check the suitable blood type.</t>
-  </si>
-  <si>
     <t>I can donate to the highest priority first.</t>
   </si>
   <si>
@@ -170,9 +168,6 @@
     <t>Be able to login.</t>
   </si>
   <si>
-    <t>Be able to view all available hospitals.</t>
-  </si>
-  <si>
     <t>Be able to view a list of blood requests sorted with urgency.</t>
   </si>
   <si>
@@ -188,12 +183,6 @@
     <t>Health sector donations</t>
   </si>
   <si>
-    <t>Be able to view all blood demand requests in a certain hospital.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I can check information about a certain hospital. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Be able to view how much of a certain medicine is needed. </t>
   </si>
   <si>
@@ -305,18 +294,12 @@
     <t>give feedback  about students' performance through surveys</t>
   </si>
   <si>
-    <t>I can collect this book and benefit from it</t>
-  </si>
-  <si>
     <t>make a request that I need school books</t>
   </si>
   <si>
     <t>I can notify donors that I need school books</t>
   </si>
   <si>
-    <t>Be notified that the books I requested are available</t>
-  </si>
-  <si>
     <t>Team Name: ASHEZ</t>
   </si>
   <si>
@@ -335,12 +318,6 @@
     <t>People who claim to be teachers but don't have the appropriate experience don't gain access to tutoring sessions</t>
   </si>
   <si>
-    <t>Be notified that the supplies I requested are available</t>
-  </si>
-  <si>
-    <t>I can collect the supplies and benefit from it</t>
-  </si>
-  <si>
     <t>view a list of requested books</t>
   </si>
   <si>
@@ -404,12 +381,6 @@
     <t xml:space="preserve">Be able to search through all medicine/supply by exact name. </t>
   </si>
   <si>
-    <t>Be able to get notified that my requested medication/medical supply is available.</t>
-  </si>
-  <si>
-    <t>I can collect them.</t>
-  </si>
-  <si>
     <t>I can be available at that time.</t>
   </si>
   <si>
@@ -624,12 +595,21 @@
   </si>
   <si>
     <t>I can show appreciation and gratitude</t>
+  </si>
+  <si>
+    <t>Be able to accept a donors donation</t>
+  </si>
+  <si>
+    <t>I can receive the donation</t>
+  </si>
+  <si>
+    <t>Be able to get notified that my requested donation is available.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -818,7 +798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -855,19 +835,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -880,23 +847,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -938,9 +894,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -959,10 +912,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -985,16 +935,12 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1010,6 +956,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,9 +969,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1239,7 +1185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1249,47 +1195,47 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" customWidth="1"/>
-    <col min="3" max="3" width="46.81640625" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="47" t="s">
+    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1303,21 +1249,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1331,7 +1277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1345,7 +1291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1359,7 +1305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1373,7 +1319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1387,994 +1333,994 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState ref="A7:D12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:D12">
     <sortCondition ref="A7"/>
   </sortState>
   <mergeCells count="3">
@@ -2383,7 +2329,7 @@
     <mergeCell ref="A5:D5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2391,30 +2337,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="102.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="102.42578125" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2424,26 +2370,26 @@
         <v>6</v>
       </c>
       <c r="D1" s="6"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="26"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="25" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="12" t="s">
@@ -2451,23 +2397,23 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="18">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>1</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -2475,21 +2421,21 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="21">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="20">
         <v>2</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="11" t="s">
@@ -2497,503 +2443,501 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="21"/>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="19">
+        <v>3</v>
+      </c>
       <c r="D5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>189</v>
+      <c r="E5" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>129</v>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="34">
-        <v>3</v>
+      <c r="C6" s="20">
+        <v>4</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>142</v>
+      <c r="E6" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>132</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="20">
-        <v>4</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>55</v>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="19">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>173</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="21">
-        <v>5</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="20">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>41</v>
+      <c r="E8" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>172</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="34">
-        <v>6</v>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="19">
+        <v>7</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>30</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="11"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="24"/>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="23"/>
       <c r="C10" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>30</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="11"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="21">
-        <v>8</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>86</v>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="19">
+        <v>9</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="34">
-        <v>9</v>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="20">
+        <v>10</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>110</v>
+      <c r="E12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="20">
-        <v>10</v>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="19">
+        <v>11</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>111</v>
+      <c r="E13" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="21">
-        <v>11</v>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="20">
+        <v>12</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>58</v>
+      <c r="E14" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="34">
-        <v>12</v>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="19">
+        <v>13</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>60</v>
+      <c r="E15" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="24"/>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="23"/>
       <c r="C16" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>57</v>
+      <c r="E16" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="21">
-        <v>14</v>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="19">
+        <v>15</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>43</v>
+      <c r="E17" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="34">
-        <v>15</v>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="20">
+        <v>16</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>44</v>
+      <c r="E18" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="19">
+        <v>17</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="20">
-        <v>16</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>149</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="21">
-        <v>17</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="20">
+        <v>18</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>45</v>
+      <c r="E20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="34">
-        <v>18</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="19">
+        <v>19</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>68</v>
+        <v>37</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="24"/>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="23"/>
       <c r="C22" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="21">
-        <v>20</v>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="19">
+        <v>21</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>120</v>
+        <v>37</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="34">
-        <v>21</v>
+    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="20">
+        <v>22</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>121</v>
+        <v>58</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="20">
-        <v>22</v>
+    <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="19">
+        <v>23</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>112</v>
+        <v>58</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="21">
-        <v>23</v>
+    <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="20">
+        <v>24</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>127</v>
+        <v>58</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="34">
-        <v>24</v>
+    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="19">
+        <v>25</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="22" t="s">
         <v>113</v>
       </c>
       <c r="G27" s="11" t="s">
@@ -3001,1734 +2945,1668 @@
       </c>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="24"/>
+    <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="23"/>
       <c r="C28" s="20">
-        <v>25</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>62</v>
+        <v>26</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="21">
-        <v>26</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>62</v>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="19">
+        <v>27</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="34">
-        <v>27</v>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="20">
+        <v>28</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
-        <v>53</v>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="20">
-        <v>28</v>
+      <c r="C31" s="19">
+        <v>29</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>82</v>
+        <v>58</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
-        <v>53</v>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="21">
-        <v>29</v>
+      <c r="C32" s="20">
+        <v>30</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
-        <v>53</v>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="34">
-        <v>30</v>
+      <c r="C33" s="19">
+        <v>31</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>79</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
-        <v>53</v>
+    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>81</v>
+      <c r="F34" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
-        <v>83</v>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="21">
-        <v>32</v>
+      <c r="C35" s="19">
+        <v>33</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>106</v>
+        <v>68</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
-        <v>83</v>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="B36" s="10"/>
-      <c r="C36" s="34">
-        <v>33</v>
+      <c r="C36" s="20">
+        <v>34</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>86</v>
+        <v>68</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
-        <v>83</v>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="B37" s="10"/>
-      <c r="C37" s="20">
-        <v>34</v>
+      <c r="C37" s="19">
+        <v>35</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>109</v>
+      <c r="E37" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
-        <v>83</v>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="B38" s="10"/>
-      <c r="C38" s="21">
-        <v>35</v>
+      <c r="C38" s="20">
+        <v>36</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>58</v>
+      <c r="E38" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
-        <v>83</v>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="B39" s="10"/>
-      <c r="C39" s="20">
+      <c r="C39" s="19">
         <v>37</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>86</v>
+      <c r="E39" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>83</v>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="20">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>44</v>
+      <c r="E40" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>83</v>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="21">
-        <v>41</v>
+      <c r="C41" s="19">
+        <v>39</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>88</v>
+      <c r="E41" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>83</v>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B42" s="10"/>
-      <c r="C42" s="34">
-        <v>42</v>
+      <c r="C42" s="20">
+        <v>40</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="22" t="s">
-        <v>89</v>
+      <c r="E42" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>83</v>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B43" s="10"/>
-      <c r="C43" s="20">
-        <v>43</v>
+      <c r="C43" s="19">
+        <v>41</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>91</v>
+      <c r="E43" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
-        <v>83</v>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" s="21">
-        <v>44</v>
+      <c r="C44" s="20">
+        <v>42</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>93</v>
+        <v>37</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>83</v>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="34">
-        <v>45</v>
+      <c r="C45" s="19">
+        <v>43</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>104</v>
+        <v>37</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>83</v>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="20">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>99</v>
+        <v>58</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>93</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>83</v>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B47" s="10"/>
-      <c r="C47" s="21">
-        <v>47</v>
+      <c r="C47" s="19">
+        <v>45</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>133</v>
+        <v>58</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>83</v>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="34">
-        <v>48</v>
+      <c r="C48" s="20">
+        <v>46</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>134</v>
+        <v>58</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>124</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
-        <v>83</v>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="20">
-        <v>49</v>
+      <c r="C49" s="19">
+        <v>47</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>95</v>
+        <v>58</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
-        <v>83</v>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="21">
-        <v>50</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="G50" s="31" t="s">
+      <c r="C50" s="20">
+        <v>48</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50" s="29" t="s">
         <v>30</v>
       </c>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>83</v>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="34">
-        <v>51</v>
+      <c r="C51" s="19">
+        <v>49</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" s="29" t="s">
         <v>30</v>
       </c>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
-        <v>146</v>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="31" t="s">
+        <v>136</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="20">
+        <v>50</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="19">
+        <v>51</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="20">
         <v>52</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E52" s="22" t="s">
+      <c r="D54" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G52" s="31" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="19">
+        <v>53</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G55" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="21">
-        <v>53</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G53" s="31" t="s">
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="20">
+        <v>54</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G56" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="34">
-        <v>54</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="G54" s="31" t="s">
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="19">
+        <v>55</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G57" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="20">
-        <v>55</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="G55" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="21">
-        <v>56</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E56" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="G56" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="34">
-        <v>57</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="G57" s="31" t="s">
-        <v>30</v>
-      </c>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41" t="s">
-        <v>146</v>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="37" t="s">
+        <v>136</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="20">
+        <v>56</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="G58" s="31" t="s">
+      <c r="E58" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G58" s="29" t="s">
         <v>30</v>
       </c>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41" t="s">
-        <v>146</v>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="37" t="s">
+        <v>136</v>
       </c>
       <c r="B59" s="10"/>
-      <c r="C59" s="34">
-        <v>59</v>
+      <c r="C59" s="19">
+        <v>57</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="F59" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="G59" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" s="29" t="s">
         <v>30</v>
       </c>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41" t="s">
-        <v>146</v>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="37" t="s">
+        <v>136</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="20">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="G60" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G60" s="29" t="s">
         <v>30</v>
       </c>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41" t="s">
-        <v>146</v>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="37" t="s">
+        <v>136</v>
       </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="34">
-        <v>61</v>
+      <c r="C61" s="19">
+        <v>59</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F61" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="G61" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G61" s="29" t="s">
         <v>30</v>
       </c>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="41" t="s">
-        <v>146</v>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="37" t="s">
+        <v>136</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="20">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="F62" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G62" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G62" s="29" t="s">
         <v>30</v>
       </c>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="41" t="s">
-        <v>146</v>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="37" t="s">
+        <v>136</v>
       </c>
       <c r="B63" s="10"/>
-      <c r="C63" s="34">
-        <v>63</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="F63" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G63" s="31" t="s">
+      <c r="C63" s="19">
+        <v>61</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G63" s="29" t="s">
         <v>30</v>
       </c>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
-        <v>146</v>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="37" t="s">
+        <v>136</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="20">
+        <v>62</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="19">
+        <v>63</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G65" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="20">
         <v>64</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F64" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G64" s="31" t="s">
+      <c r="D66" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G66" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="34">
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="19">
         <v>65</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="F65" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10">
-        <v>66</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="F66" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="G66" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H66" s="10"/>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10">
-        <v>67</v>
-      </c>
       <c r="D67" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>167</v>
+        <v>125</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="41" t="s">
-        <v>146</v>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="37" t="s">
+        <v>136</v>
       </c>
       <c r="B68" s="10"/>
-      <c r="C68" s="10">
-        <v>68</v>
+      <c r="C68" s="20">
+        <v>66</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="F68" s="22" t="s">
-        <v>169</v>
+        <v>66</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>159</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="41" t="s">
-        <v>146</v>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="37" t="s">
+        <v>136</v>
       </c>
       <c r="B69" s="10"/>
-      <c r="C69" s="10">
-        <v>69</v>
+      <c r="C69" s="19">
+        <v>67</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F69" s="22" t="s">
-        <v>186</v>
+        <v>66</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="41" t="s">
-        <v>146</v>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="37" t="s">
+        <v>136</v>
       </c>
       <c r="B70" s="10"/>
-      <c r="C70" s="10">
-        <v>70</v>
-      </c>
-      <c r="D70" s="48" t="s">
+      <c r="C70" s="20">
+        <v>68</v>
+      </c>
+      <c r="D70" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E70" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="F70" s="22" t="s">
-        <v>195</v>
+      <c r="E70" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>185</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="41" t="s">
-        <v>146</v>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="37" t="s">
+        <v>136</v>
       </c>
       <c r="B71" s="10"/>
-      <c r="C71" s="10">
-        <v>71</v>
+      <c r="C71" s="19">
+        <v>69</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
       <c r="G71" s="11"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="41" t="s">
-        <v>146</v>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="37" t="s">
+        <v>136</v>
       </c>
       <c r="B72" s="10"/>
-      <c r="C72" s="10">
-        <v>72</v>
+      <c r="C72" s="20">
+        <v>70</v>
       </c>
       <c r="D72" s="9"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
       <c r="G72" s="11"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="40" t="s">
-        <v>170</v>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="36" t="s">
+        <v>160</v>
       </c>
       <c r="B73" s="10"/>
-      <c r="C73" s="10">
-        <v>73</v>
+      <c r="C73" s="19">
+        <v>71</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E73" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F73" s="22" t="s">
-        <v>171</v>
+      <c r="E73" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>161</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="40" t="s">
-        <v>170</v>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="36" t="s">
+        <v>160</v>
       </c>
       <c r="B74" s="10"/>
-      <c r="C74" s="10">
-        <v>74</v>
+      <c r="C74" s="20">
+        <v>72</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E74" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="F74" s="22" t="s">
-        <v>171</v>
+      <c r="E74" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>161</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42" t="s">
-        <v>129</v>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="36" t="s">
+        <v>160</v>
       </c>
       <c r="B75" s="10"/>
-      <c r="C75" s="10">
-        <v>75</v>
+      <c r="C75" s="19">
+        <v>73</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="F75" s="22" t="s">
-        <v>183</v>
+        <v>58</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42" t="s">
-        <v>129</v>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="36" t="s">
+        <v>160</v>
       </c>
       <c r="B76" s="10"/>
-      <c r="C76" s="10">
-        <v>76</v>
+      <c r="C76" s="20">
+        <v>74</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F76" s="22" t="s">
-        <v>182</v>
+        <v>58</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>167</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="40" t="s">
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="19">
+        <v>75</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F77" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10">
-        <v>77</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E77" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="F77" s="22" t="s">
-        <v>175</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="40" t="s">
-        <v>170</v>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="36" t="s">
+        <v>160</v>
       </c>
       <c r="B78" s="10"/>
-      <c r="C78" s="10">
-        <v>78</v>
+      <c r="C78" s="20">
+        <v>76</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="F78" s="22" t="s">
-        <v>177</v>
+        <v>37</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>187</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="40" t="s">
-        <v>170</v>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="36" t="s">
+        <v>160</v>
       </c>
       <c r="B79" s="10"/>
-      <c r="C79" s="10">
+      <c r="C79" s="19">
+        <v>77</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="10"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="20">
+        <v>78</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="10"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="19">
         <v>79</v>
       </c>
-      <c r="D79" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="F79" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H79" s="10"/>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10">
-        <v>80</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F80" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H80" s="10"/>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10">
-        <v>81</v>
-      </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
       <c r="G81" s="11"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="40" t="s">
-        <v>170</v>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="36" t="s">
+        <v>160</v>
       </c>
       <c r="B82" s="10"/>
-      <c r="C82" s="10">
-        <v>82</v>
+      <c r="C82" s="20">
+        <v>80</v>
       </c>
       <c r="D82" s="9"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
       <c r="G82" s="11"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="40" t="s">
-        <v>170</v>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="36" t="s">
+        <v>160</v>
       </c>
       <c r="B83" s="10"/>
-      <c r="C83" s="10">
-        <v>83</v>
+      <c r="C83" s="19">
+        <v>81</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
       <c r="G83" s="11"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="40" t="s">
-        <v>170</v>
-      </c>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="21"/>
       <c r="B84" s="10"/>
-      <c r="C84" s="10">
-        <v>84</v>
-      </c>
+      <c r="C84" s="10"/>
       <c r="D84" s="9"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
       <c r="G84" s="11"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="40" t="s">
-        <v>170</v>
-      </c>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="21"/>
       <c r="B85" s="10"/>
-      <c r="C85" s="10">
-        <v>85</v>
-      </c>
+      <c r="C85" s="10"/>
       <c r="D85" s="9"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
       <c r="G85" s="11"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
-        <v>129</v>
-      </c>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
       <c r="B86" s="10"/>
-      <c r="C86" s="10">
-        <v>86</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E86" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="F86" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="C86" s="10"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="11"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="9"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
       <c r="G87" s="11"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="22"/>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="21"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="9"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
       <c r="G88" s="11"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="22"/>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="21"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
       <c r="D89" s="9"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
       <c r="G89" s="11"/>
       <c r="H89" s="10"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="22"/>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="21"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="9"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
       <c r="G90" s="11"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="22"/>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="21"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="9"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
       <c r="G91" s="11"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="22"/>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="21"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
       <c r="D92" s="9"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
       <c r="G92" s="11"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="22"/>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="21"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
       <c r="D93" s="9"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
       <c r="G93" s="11"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="22"/>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="21"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="9"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
       <c r="G94" s="11"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="22"/>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="21"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="9"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
       <c r="G95" s="11"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="22"/>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="21"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="9"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
       <c r="G96" s="11"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="22"/>
+    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="21"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="9"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
       <c r="G97" s="11"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="22"/>
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="21"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="9"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
       <c r="G98" s="11"/>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="22"/>
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="21"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="9"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
       <c r="G99" s="11"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="22"/>
+    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="21"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="9"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
       <c r="G100" s="11"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="22"/>
+    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="21"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="9"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
       <c r="G101" s="11"/>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="22"/>
+    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="21"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="9"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
       <c r="G102" s="11"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="22"/>
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="21"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="9"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
       <c r="G103" s="11"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="22"/>
+    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="21"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="9"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
       <c r="G104" s="11"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="21"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="D105" s="9"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="22"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
       <c r="G105" s="11"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="22"/>
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="21"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="9"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
       <c r="G106" s="11"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="22"/>
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="21"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="9"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
       <c r="G107" s="11"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="22"/>
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="21"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="9"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
       <c r="G108" s="11"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="22"/>
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="21"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="D109" s="9"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
       <c r="G109" s="11"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="22"/>
+    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="21"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="9"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
       <c r="G110" s="11"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="22"/>
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="21"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="9"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
       <c r="G111" s="11"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="22"/>
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="21"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="9"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
       <c r="G112" s="11"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="22"/>
+    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="21"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="9"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
       <c r="G113" s="11"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="22"/>
+    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="21"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="9"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
       <c r="G114" s="11"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="22"/>
+    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="21"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="9"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
       <c r="G115" s="11"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="22"/>
+    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="21"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
       <c r="D116" s="9"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
       <c r="G116" s="11"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="22"/>
+    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="21"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
       <c r="D117" s="9"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
       <c r="G117" s="11"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="22"/>
+    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="21"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="9"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
       <c r="G118" s="11"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="22"/>
+    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="21"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="9"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
       <c r="G119" s="11"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="22"/>
+    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="21"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
       <c r="D120" s="9"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
       <c r="G120" s="11"/>
       <c r="H120" s="10"/>
     </row>
-    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="22"/>
+    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="21"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="9"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
       <c r="G121" s="11"/>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="22"/>
+    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="21"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="9"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
       <c r="G122" s="11"/>
       <c r="H122" s="10"/>
     </row>
-    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="22"/>
+    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="21"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
       <c r="D123" s="9"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
       <c r="G123" s="11"/>
       <c r="H123" s="10"/>
     </row>
-    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="22"/>
+    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="21"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="D124" s="9"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
       <c r="G124" s="11"/>
       <c r="H124" s="10"/>
     </row>
-    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="22"/>
+    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="21"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
       <c r="D125" s="9"/>
-      <c r="E125" s="22"/>
-      <c r="F125" s="22"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
       <c r="G125" s="11"/>
       <c r="H125" s="10"/>
     </row>
-    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="22"/>
+    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="21"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
       <c r="D126" s="9"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
       <c r="G126" s="11"/>
       <c r="H126" s="10"/>
     </row>
-    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="22"/>
+    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="21"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
       <c r="D127" s="9"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="22"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
       <c r="G127" s="11"/>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="22"/>
+    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="21"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
       <c r="D128" s="9"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
       <c r="G128" s="11"/>
       <c r="H128" s="10"/>
     </row>
-    <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="22"/>
+    <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="21"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
       <c r="D129" s="9"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="22"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
       <c r="G129" s="11"/>
       <c r="H129" s="10"/>
     </row>
-    <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="22"/>
+    <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="21"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
       <c r="D130" s="9"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="22"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
       <c r="G130" s="11"/>
       <c r="H130" s="10"/>
     </row>
-    <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="22"/>
+    <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="21"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
       <c r="D131" s="9"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="22"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21"/>
       <c r="G131" s="11"/>
       <c r="H131" s="10"/>
     </row>
-    <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="22"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="10"/>
-    </row>
-    <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="22"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="10"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="22"/>
-      <c r="F133" s="22"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="10"/>
-    </row>
-    <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="22"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="10"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G134">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G131" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Mobile App,Online Banking Website,Both"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin, donor, receiver, delivery person, Donor/receiver/delivery person/admin ,donor/receiver"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4738,7 +4616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4748,16 +4626,16 @@
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
-    <col min="3" max="3" width="93.453125" customWidth="1"/>
-    <col min="4" max="4" width="118.54296875" customWidth="1"/>
-    <col min="5" max="5" width="51.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="93.42578125" customWidth="1"/>
+    <col min="4" max="4" width="118.5703125" customWidth="1"/>
+    <col min="5" max="5" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
@@ -4794,7 +4672,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -4821,7 +4699,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -4848,7 +4726,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -4875,7 +4753,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4902,7 +4780,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -4929,7 +4807,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4956,7 +4834,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -4983,7 +4861,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -5010,7 +4888,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -5037,7 +4915,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -5064,7 +4942,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5091,7 +4969,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5118,7 +4996,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5145,7 +5023,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5172,7 +5050,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5199,7 +5077,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5226,7 +5104,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5253,7 +5131,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5280,7 +5158,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -5307,7 +5185,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5334,7 +5212,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5361,7 +5239,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -5388,7 +5266,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5415,7 +5293,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5442,7 +5320,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -5469,7 +5347,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5496,7 +5374,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -5523,7 +5401,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -5550,7 +5428,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5577,7 +5455,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5604,7 +5482,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5631,7 +5509,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5658,7 +5536,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5685,7 +5563,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -5712,7 +5590,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5739,7 +5617,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -5766,7 +5644,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5793,7 +5671,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5820,7 +5698,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5847,7 +5725,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5874,7 +5752,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5901,7 +5779,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5928,7 +5806,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5955,7 +5833,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5982,7 +5860,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -6009,7 +5887,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -6036,7 +5914,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -6063,7 +5941,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -6090,7 +5968,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -6117,7 +5995,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -6144,7 +6022,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -6171,7 +6049,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -6198,7 +6076,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -6225,7 +6103,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -6252,7 +6130,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -6279,7 +6157,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -6306,7 +6184,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -6333,7 +6211,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -6360,7 +6238,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -6387,7 +6265,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -6414,7 +6292,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -6441,7 +6319,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -6468,7 +6346,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -6495,7 +6373,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -6522,7 +6400,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -6549,7 +6427,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -6576,7 +6454,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -6603,7 +6481,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -6630,7 +6508,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -6657,7 +6535,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -6684,7 +6562,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -6711,7 +6589,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -6738,7 +6616,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -6765,7 +6643,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -6792,7 +6670,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -6819,7 +6697,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -6846,7 +6724,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -6873,7 +6751,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -6900,7 +6778,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6927,7 +6805,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -6954,7 +6832,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -6981,7 +6859,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -7008,7 +6886,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -7035,7 +6913,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -7062,7 +6940,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -7089,7 +6967,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -7116,7 +6994,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -7143,7 +7021,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -7170,7 +7048,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -7197,7 +7075,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -7224,7 +7102,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -7251,7 +7129,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -7278,7 +7156,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -7305,7 +7183,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -7332,7 +7210,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -7359,7 +7237,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -7386,7 +7264,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -7413,7 +7291,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -7440,7 +7318,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -7467,7 +7345,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -7494,7 +7372,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -7521,7 +7399,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -7548,7 +7426,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -7575,7 +7453,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -7602,7 +7480,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7629,7 +7507,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -7656,7 +7534,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -7683,7 +7561,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -7710,7 +7588,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7737,7 +7615,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7764,7 +7642,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -7791,7 +7669,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -7818,7 +7696,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -7845,7 +7723,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7872,7 +7750,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7899,7 +7777,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -7926,7 +7804,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -7953,7 +7831,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -7980,7 +7858,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -8007,7 +7885,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -8034,7 +7912,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -8061,7 +7939,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -8088,7 +7966,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -8115,7 +7993,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -8142,7 +8020,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -8169,7 +8047,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -8196,7 +8074,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -8223,7 +8101,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -8250,7 +8128,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -8277,7 +8155,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -8304,7 +8182,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -8331,7 +8209,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -8358,7 +8236,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -8385,7 +8263,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -8412,7 +8290,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -8439,7 +8317,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -8466,7 +8344,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -8493,7 +8371,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -8520,7 +8398,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -8547,7 +8425,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -8574,7 +8452,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -8601,7 +8479,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -8628,7 +8506,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -8655,7 +8533,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -8682,7 +8560,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -8709,7 +8587,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -8736,7 +8614,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -8763,7 +8641,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -8790,7 +8668,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -8817,7 +8695,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -8844,7 +8722,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -8871,7 +8749,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -8898,7 +8776,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -8925,7 +8803,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -8952,7 +8830,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -8979,7 +8857,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -9006,7 +8884,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -9033,7 +8911,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -9060,7 +8938,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -9087,7 +8965,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -9114,7 +8992,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -9141,7 +9019,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -9168,7 +9046,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -9195,7 +9073,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -9222,7 +9100,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -9249,7 +9127,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -9276,7 +9154,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -9303,7 +9181,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -9330,7 +9208,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -9357,7 +9235,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -9384,7 +9262,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -9411,7 +9289,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -9438,7 +9316,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -9465,7 +9343,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -9492,7 +9370,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -9519,7 +9397,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -9546,7 +9424,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -9573,7 +9451,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -9600,7 +9478,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -9627,7 +9505,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -9654,7 +9532,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -9681,7 +9559,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -9708,7 +9586,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -9735,7 +9613,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -9762,7 +9640,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -9789,7 +9667,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -9816,7 +9694,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -9843,7 +9721,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -9870,7 +9748,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -9897,7 +9775,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -9924,7 +9802,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -9951,7 +9829,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -9978,7 +9856,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -10005,7 +9883,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -10032,7 +9910,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -10059,7 +9937,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -10086,7 +9964,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -10113,7 +9991,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -10140,7 +10018,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -10167,7 +10045,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -10194,7 +10072,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -10221,7 +10099,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -10248,7 +10126,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -10275,7 +10153,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -10302,7 +10180,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -10329,7 +10207,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -10356,7 +10234,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -10383,7 +10261,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -10410,7 +10288,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -10437,7 +10315,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -10464,7 +10342,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -10491,7 +10369,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -10518,7 +10396,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -10545,7 +10423,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -10572,7 +10450,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -10599,7 +10477,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -10626,7 +10504,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -10653,7 +10531,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -10680,7 +10558,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -10707,786 +10585,786 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RequirementsTemplateM1.xlsx
+++ b/RequirementsTemplateM1.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Non-Functional Requirements She" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Functional Requirements Sheet'!$D$1:$D$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Functional Requirements Sheet'!$D$1:$D$136</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="250">
   <si>
     <t>Name</t>
   </si>
@@ -164,12 +164,6 @@
     <t>I use the suitable equipment and treatment in the appointment.</t>
   </si>
   <si>
-    <t>Be able to sign up.</t>
-  </si>
-  <si>
-    <t>Be able to login.</t>
-  </si>
-  <si>
     <t>Be able to view all available hospitals.</t>
   </si>
   <si>
@@ -560,15 +554,6 @@
     <t>I can choose whether to pay in installments or not</t>
   </si>
   <si>
-    <t xml:space="preserve">admin </t>
-  </si>
-  <si>
-    <t>notify receivers that an apartment is occupied</t>
-  </si>
-  <si>
-    <t>other receivers know that it's no longer available</t>
-  </si>
-  <si>
     <t>upload pictures of my donation</t>
   </si>
   <si>
@@ -590,21 +575,12 @@
     <t>edit /save my address info</t>
   </si>
   <si>
-    <t>Be able to sign out</t>
-  </si>
-  <si>
-    <t>I temporarily get out of my account.</t>
-  </si>
-  <si>
     <t>delivery person/donor/receiver</t>
   </si>
   <si>
     <t xml:space="preserve">I can reach them if I'm lost or if I've arrived </t>
   </si>
   <si>
-    <t>Pickup/ delivery of donations/ Refugee and people living below the poverty line needs</t>
-  </si>
-  <si>
     <t>Be able to contact the other party</t>
   </si>
   <si>
@@ -624,6 +600,180 @@
   </si>
   <si>
     <t>I can show appreciation and gratitude</t>
+  </si>
+  <si>
+    <t>make a request to donate clothes,bags, shoes</t>
+  </si>
+  <si>
+    <t>I can notify receivers that a new donation is available</t>
+  </si>
+  <si>
+    <t>filter the organization I want to donate to by name</t>
+  </si>
+  <si>
+    <t>I can select the desired choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accept a donation </t>
+  </si>
+  <si>
+    <t>a delivery person can drop it off</t>
+  </si>
+  <si>
+    <t>make a request to donate kichen supplies</t>
+  </si>
+  <si>
+    <t>make a request to donate food and groceries</t>
+  </si>
+  <si>
+    <t>make a request to donate electrical appliances</t>
+  </si>
+  <si>
+    <t>They can apply</t>
+  </si>
+  <si>
+    <t>post that job opportunities are available for refugees with applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accept the job donation and fill the application </t>
+  </si>
+  <si>
+    <t>I can notify the donor that I am wiling to take the job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review the applications of the receivers </t>
+  </si>
+  <si>
+    <t>I can accept or reject</t>
+  </si>
+  <si>
+    <t>I can meet him</t>
+  </si>
+  <si>
+    <t>contact the applicant directly</t>
+  </si>
+  <si>
+    <t>make a request to donate furniture</t>
+  </si>
+  <si>
+    <t>make a request to donate vehicles</t>
+  </si>
+  <si>
+    <t>view receivers' comments and thank you notes</t>
+  </si>
+  <si>
+    <t>view the impact of my donations</t>
+  </si>
+  <si>
+    <t>view a history of my previous donations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can check details of my donations </t>
+  </si>
+  <si>
+    <t>I can have a regular donation schedule</t>
+  </si>
+  <si>
+    <t>schedule frequent donations(daily/monthly/weekly)</t>
+  </si>
+  <si>
+    <t>add informations about the history and purpose of the banking system</t>
+  </si>
+  <si>
+    <t>I can encourage new donors</t>
+  </si>
+  <si>
+    <t>choose whether I want to donate to an organization or an individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule delivery timimg </t>
+  </si>
+  <si>
+    <t>I can be arrange convenient timing.</t>
+  </si>
+  <si>
+    <t>Health sector donations/School supplies donations</t>
+  </si>
+  <si>
+    <t>offer free transportation means for pro bono appointments and tutoring</t>
+  </si>
+  <si>
+    <t>it can be easier to go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delivery person </t>
+  </si>
+  <si>
+    <t>I should be able to communicate using text messages</t>
+  </si>
+  <si>
+    <t>I can quickly update the receivers and donors of my current status</t>
+  </si>
+  <si>
+    <t>I select the preferred donation receiver</t>
+  </si>
+  <si>
+    <t>Be able to login with username and password</t>
+  </si>
+  <si>
+    <t>Donor/receiver/delivery person</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Availabilty</t>
+  </si>
+  <si>
+    <t>Ease to use</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Scalabilty</t>
+  </si>
+  <si>
+    <t>Robustness</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Portability</t>
+  </si>
+  <si>
+    <t>The system must be safe and prevent unauthorized access of users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system must be avaialable for all users at all time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The software should be easy to understand  for all users </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system should be fast and responsive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system should handle a large amount of users </t>
+  </si>
+  <si>
+    <t>The system should recover from errors efficietly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system should be reliable with little system faults </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The software should support different types of devices </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessability </t>
+  </si>
+  <si>
+    <t>The system should be accessibile by all people including people with disabilities</t>
+  </si>
+  <si>
+    <t>Be able to sign up with the required personal info</t>
   </si>
 </sst>
 </file>
@@ -896,7 +1046,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -985,16 +1135,12 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1010,6 +1156,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,9 +1170,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1246,7 +1393,7 @@
   <dimension ref="A1:D998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1404,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -2395,10 +2542,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2434,7 +2581,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
@@ -2452,8 +2599,8 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>129</v>
+      <c r="A3" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="B3" s="18">
         <v>1</v>
@@ -2461,11 +2608,11 @@
       <c r="C3" s="20">
         <v>1</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>38</v>
+      <c r="D3" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>39</v>
@@ -2476,8 +2623,8 @@
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>129</v>
+      <c r="A4" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="21">
@@ -2487,7 +2634,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>40</v>
@@ -2497,86 +2644,88 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>189</v>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="21">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="34">
-        <v>3</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>142</v>
+      <c r="A6" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="20">
+        <v>5</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="20">
-        <v>4</v>
+      <c r="A7" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="21">
+        <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>53</v>
+      <c r="A8" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B8" s="24"/>
-      <c r="C8" s="21">
-        <v>5</v>
+      <c r="C8" s="20">
+        <v>7</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>30</v>
@@ -2584,21 +2733,21 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>53</v>
+      <c r="A9" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B9" s="24"/>
-      <c r="C9" s="34">
-        <v>6</v>
+      <c r="C9" s="21">
+        <v>8</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>30</v>
@@ -2606,21 +2755,21 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>53</v>
+      <c r="A10" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>30</v>
@@ -2628,21 +2777,21 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
-        <v>53</v>
+      <c r="A11" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>30</v>
@@ -2650,21 +2799,21 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>53</v>
+      <c r="A12" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B12" s="24"/>
-      <c r="C12" s="34">
-        <v>9</v>
+      <c r="C12" s="20">
+        <v>11</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>30</v>
@@ -2672,21 +2821,21 @@
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>53</v>
+      <c r="A13" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B13" s="24"/>
-      <c r="C13" s="20">
-        <v>10</v>
+      <c r="C13" s="21">
+        <v>12</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>124</v>
+      <c r="E13" s="34" t="s">
+        <v>57</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>30</v>
@@ -2694,18 +2843,18 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
-        <v>53</v>
+      <c r="A14" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B14" s="24"/>
-      <c r="C14" s="21">
-        <v>11</v>
+      <c r="C14" s="20">
+        <v>13</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="35" t="s">
-        <v>59</v>
+      <c r="E14" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>58</v>
@@ -2716,21 +2865,21 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
-        <v>53</v>
+      <c r="A15" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B15" s="24"/>
-      <c r="C15" s="34">
-        <v>12</v>
+      <c r="C15" s="21">
+        <v>14</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>125</v>
+      <c r="E15" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>30</v>
@@ -2738,21 +2887,21 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
-        <v>53</v>
+      <c r="A16" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>30</v>
@@ -2760,21 +2909,21 @@
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
-        <v>53</v>
+      <c r="A17" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>30</v>
@@ -2782,21 +2931,21 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
-        <v>53</v>
+      <c r="A18" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B18" s="24"/>
-      <c r="C18" s="34">
-        <v>15</v>
+      <c r="C18" s="20">
+        <v>17</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>30</v>
@@ -2804,43 +2953,43 @@
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
-        <v>53</v>
+      <c r="A19" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B19" s="24"/>
-      <c r="C19" s="20">
-        <v>16</v>
+      <c r="C19" s="21">
+        <v>18</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
-        <v>53</v>
+    <row r="20" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B20" s="24"/>
-      <c r="C20" s="21">
-        <v>17</v>
+      <c r="C20" s="20">
+        <v>19</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>30</v>
@@ -2848,21 +2997,21 @@
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
-        <v>53</v>
+      <c r="A21" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B21" s="24"/>
-      <c r="C21" s="34">
-        <v>18</v>
+      <c r="C21" s="21">
+        <v>20</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>30</v>
@@ -2870,21 +3019,21 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
-        <v>53</v>
+      <c r="A22" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>30</v>
@@ -2892,21 +3041,21 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
-        <v>53</v>
+      <c r="A23" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>30</v>
@@ -2914,21 +3063,21 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
-        <v>53</v>
+      <c r="A24" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B24" s="24"/>
-      <c r="C24" s="34">
-        <v>21</v>
+      <c r="C24" s="20">
+        <v>23</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>30</v>
@@ -2936,43 +3085,43 @@
       <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
-        <v>53</v>
+      <c r="A25" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B25" s="24"/>
-      <c r="C25" s="20">
-        <v>22</v>
+      <c r="C25" s="21">
+        <v>24</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
-        <v>53</v>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B26" s="24"/>
-      <c r="C26" s="21">
-        <v>23</v>
+      <c r="C26" s="20">
+        <v>25</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>30</v>
@@ -2980,21 +3129,21 @@
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
-        <v>53</v>
+      <c r="A27" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B27" s="24"/>
-      <c r="C27" s="34">
-        <v>24</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>113</v>
+      <c r="C27" s="21">
+        <v>26</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>30</v>
@@ -3002,21 +3151,21 @@
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="24"/>
+      <c r="A28" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="10"/>
       <c r="C28" s="20">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="22" t="s">
-        <v>63</v>
-      </c>
       <c r="F28" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>30</v>
@@ -3024,21 +3173,21 @@
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
-        <v>53</v>
+      <c r="A29" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="21">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>30</v>
@@ -3046,59 +3195,59 @@
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
-        <v>53</v>
+      <c r="A30" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="34">
-        <v>27</v>
+      <c r="C30" s="20">
+        <v>29</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>73</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
-        <v>53</v>
+    <row r="31" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="20">
-        <v>28</v>
+      <c r="C31" s="21">
+        <v>30</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E31" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="22" t="s">
         <v>75</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>82</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
-        <v>53</v>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="21">
-        <v>29</v>
+      <c r="C32" s="20">
+        <v>31</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>76</v>
@@ -3112,15 +3261,15 @@
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
-        <v>53</v>
+      <c r="A33" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="34">
-        <v>30</v>
+      <c r="C33" s="21">
+        <v>32</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E33" s="22" t="s">
         <v>78</v>
@@ -3134,21 +3283,21 @@
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
-        <v>53</v>
+      <c r="A34" s="38" t="s">
+        <v>81</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="20">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>30</v>
@@ -3156,21 +3305,21 @@
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
-        <v>83</v>
+      <c r="A35" s="38" t="s">
+        <v>81</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="21">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>30</v>
@@ -3178,21 +3327,21 @@
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
-        <v>83</v>
+      <c r="A36" s="38" t="s">
+        <v>81</v>
       </c>
       <c r="B36" s="10"/>
-      <c r="C36" s="34">
-        <v>33</v>
+      <c r="C36" s="20">
+        <v>35</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>30</v>
@@ -3200,21 +3349,21 @@
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
-        <v>83</v>
+      <c r="A37" s="38" t="s">
+        <v>81</v>
       </c>
       <c r="B37" s="10"/>
-      <c r="C37" s="20">
-        <v>34</v>
+      <c r="C37" s="21">
+        <v>36</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>30</v>
@@ -3222,21 +3371,21 @@
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
-        <v>83</v>
+      <c r="A38" s="38" t="s">
+        <v>81</v>
       </c>
       <c r="B38" s="10"/>
-      <c r="C38" s="21">
-        <v>35</v>
+      <c r="C38" s="20">
+        <v>37</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="22" t="s">
-        <v>108</v>
+      <c r="E38" s="33" t="s">
+        <v>83</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>30</v>
@@ -3244,21 +3393,21 @@
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
-        <v>83</v>
+      <c r="A39" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="B39" s="10"/>
-      <c r="C39" s="20">
-        <v>37</v>
+      <c r="C39" s="21">
+        <v>38</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="22" t="s">
-        <v>86</v>
+      <c r="F39" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>30</v>
@@ -3267,20 +3416,20 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="20">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>44</v>
+        <v>128</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>30</v>
@@ -3289,17 +3438,17 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="21">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>88</v>
@@ -3311,20 +3460,20 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B42" s="10"/>
-      <c r="C42" s="34">
-        <v>42</v>
+      <c r="C42" s="20">
+        <v>41</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E42" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="22" t="s">
         <v>89</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>90</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>30</v>
@@ -3333,17 +3482,17 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" s="10"/>
-      <c r="C43" s="20">
-        <v>43</v>
+      <c r="C43" s="21">
+        <v>42</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F43" s="22" t="s">
         <v>91</v>
@@ -3355,20 +3504,20 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" s="21">
-        <v>44</v>
+      <c r="C44" s="20">
+        <v>43</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>30</v>
@@ -3377,20 +3526,20 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="34">
-        <v>45</v>
+      <c r="C45" s="21">
+        <v>44</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>104</v>
+        <v>60</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>30</v>
@@ -3399,20 +3548,20 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="20">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>99</v>
+        <v>60</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>30</v>
@@ -3421,20 +3570,20 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="21">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E47" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" s="22" t="s">
         <v>132</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>133</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>30</v>
@@ -3443,20 +3592,20 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="34">
-        <v>48</v>
+      <c r="C48" s="20">
+        <v>47</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>30</v>
@@ -3465,108 +3614,108 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="20">
-        <v>49</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>62</v>
+      <c r="C49" s="21">
+        <v>48</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="21">
-        <v>50</v>
-      </c>
-      <c r="D50" s="19" t="s">
+      <c r="C50" s="20">
+        <v>49</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E50" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" s="22" t="s">
         <v>100</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>149</v>
       </c>
       <c r="G50" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>83</v>
+    <row r="51" spans="1:8" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
+        <v>222</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="34">
-        <v>51</v>
+      <c r="C51" s="21">
+        <v>50</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>101</v>
+        <v>223</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G51" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="20">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G52" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="21">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G53" s="31" t="s">
         <v>30</v>
@@ -3575,20 +3724,20 @@
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B54" s="10"/>
-      <c r="C54" s="34">
-        <v>54</v>
+      <c r="C54" s="20">
+        <v>53</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G54" s="31" t="s">
         <v>30</v>
@@ -3597,20 +3746,20 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B55" s="10"/>
-      <c r="C55" s="20">
-        <v>55</v>
+      <c r="C55" s="21">
+        <v>54</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G55" s="31" t="s">
         <v>30</v>
@@ -3619,20 +3768,20 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="B56" s="10"/>
-      <c r="C56" s="21">
-        <v>56</v>
+      <c r="C56" s="20">
+        <v>55</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E56" s="32" t="s">
-        <v>193</v>
+        <v>133</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="G56" s="31" t="s">
         <v>30</v>
@@ -3640,21 +3789,21 @@
       <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="34">
-        <v>57</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>128</v>
+      <c r="A57" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="21">
+        <v>56</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="G57" s="31" t="s">
         <v>30</v>
@@ -3662,21 +3811,21 @@
       <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B58" s="10"/>
+      <c r="A58" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="24"/>
       <c r="C58" s="20">
-        <v>58</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="G58" s="31" t="s">
         <v>30</v>
@@ -3684,21 +3833,21 @@
       <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="21">
+        <v>58</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" s="22" t="s">
         <v>146</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="34">
-        <v>59</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="F59" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="G59" s="31" t="s">
         <v>30</v>
@@ -3706,21 +3855,21 @@
       <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41" t="s">
-        <v>146</v>
+      <c r="A60" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="20">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="G60" s="31" t="s">
         <v>30</v>
@@ -3728,21 +3877,21 @@
       <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41" t="s">
-        <v>146</v>
+      <c r="A61" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="34">
-        <v>61</v>
+      <c r="C61" s="21">
+        <v>60</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G61" s="31" t="s">
         <v>30</v>
@@ -3750,21 +3899,21 @@
       <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="41" t="s">
-        <v>146</v>
+      <c r="A62" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="20">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="E62" s="22" t="s">
         <v>155</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G62" s="31" t="s">
         <v>30</v>
@@ -3772,21 +3921,21 @@
       <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="41" t="s">
-        <v>146</v>
+      <c r="A63" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="B63" s="10"/>
-      <c r="C63" s="34">
-        <v>63</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>135</v>
+      <c r="C63" s="21">
+        <v>62</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G63" s="31" t="s">
         <v>30</v>
@@ -3794,21 +3943,21 @@
       <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
-        <v>146</v>
+      <c r="A64" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="20">
-        <v>64</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>160</v>
+        <v>63</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>133</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G64" s="31" t="s">
         <v>30</v>
@@ -3816,21 +3965,21 @@
       <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="41" t="s">
-        <v>146</v>
+      <c r="A65" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="B65" s="10"/>
-      <c r="C65" s="34">
-        <v>65</v>
+      <c r="C65" s="21">
+        <v>64</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G65" s="31" t="s">
         <v>30</v>
@@ -3838,21 +3987,21 @@
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="41" t="s">
-        <v>146</v>
+      <c r="A66" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="B66" s="10"/>
-      <c r="C66" s="10">
-        <v>66</v>
+      <c r="C66" s="20">
+        <v>65</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G66" s="31" t="s">
         <v>30</v>
@@ -3860,43 +4009,43 @@
       <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="41" t="s">
-        <v>146</v>
+      <c r="A67" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="B67" s="10"/>
-      <c r="C67" s="10">
+      <c r="C67" s="21">
+        <v>66</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="10"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="20">
         <v>67</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" s="10"/>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10">
-        <v>68</v>
-      </c>
       <c r="D68" s="9" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>30</v>
@@ -3904,21 +4053,21 @@
       <c r="H68" s="10"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="41" t="s">
-        <v>146</v>
+      <c r="A69" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="B69" s="10"/>
-      <c r="C69" s="10">
-        <v>69</v>
+      <c r="C69" s="21">
+        <v>68</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>30</v>
@@ -3926,21 +4075,21 @@
       <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="41" t="s">
-        <v>146</v>
+      <c r="A70" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="B70" s="10"/>
-      <c r="C70" s="10">
-        <v>70</v>
-      </c>
-      <c r="D70" s="48" t="s">
-        <v>37</v>
+      <c r="C70" s="20">
+        <v>69</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>30</v>
@@ -3948,49 +4097,65 @@
       <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="41" t="s">
-        <v>146</v>
+      <c r="A71" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="B71" s="10"/>
-      <c r="C71" s="10">
+      <c r="C71" s="21">
+        <v>70</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="20">
         <v>71</v>
       </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10">
+      <c r="D72" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" s="10"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="21">
         <v>72</v>
-      </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="10"/>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10">
-        <v>73</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>30</v>
@@ -3998,21 +4163,21 @@
       <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="40" t="s">
-        <v>170</v>
+      <c r="A74" s="38" t="s">
+        <v>168</v>
       </c>
       <c r="B74" s="10"/>
-      <c r="C74" s="10">
-        <v>74</v>
+      <c r="C74" s="20">
+        <v>73</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>30</v>
@@ -4020,21 +4185,21 @@
       <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42" t="s">
-        <v>129</v>
+      <c r="A75" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="B75" s="10"/>
-      <c r="C75" s="10">
-        <v>75</v>
+      <c r="C75" s="21">
+        <v>74</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>30</v>
@@ -4042,21 +4207,21 @@
       <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42" t="s">
-        <v>129</v>
+      <c r="A76" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="B76" s="10"/>
-      <c r="C76" s="10">
-        <v>76</v>
+      <c r="C76" s="20">
+        <v>75</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>30</v>
@@ -4064,21 +4229,21 @@
       <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="40" t="s">
-        <v>170</v>
+      <c r="A77" s="38" t="s">
+        <v>168</v>
       </c>
       <c r="B77" s="10"/>
-      <c r="C77" s="10">
-        <v>77</v>
+      <c r="C77" s="21">
+        <v>76</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>30</v>
@@ -4086,21 +4251,21 @@
       <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="40" t="s">
-        <v>170</v>
+      <c r="A78" s="38" t="s">
+        <v>168</v>
       </c>
       <c r="B78" s="10"/>
-      <c r="C78" s="10">
-        <v>78</v>
+      <c r="C78" s="20">
+        <v>77</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>176</v>
+        <v>174</